--- a/0_data/9_evaluation/distances/c/c_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/c/c_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.10477855477856</v>
+        <v>15.90379825653798</v>
       </c>
       <c r="C2" t="n">
-        <v>11.18764568764569</v>
+        <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.43053613053613</v>
+        <v>3.426064757160648</v>
       </c>
       <c r="E2" t="n">
-        <v>17.98601398601399</v>
+        <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.03006993006993</v>
+        <v>6.020622665006226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008857808857808857</v>
+        <v>0.008468244084682441</v>
       </c>
       <c r="H2" t="n">
-        <v>2.386072261072261</v>
+        <v>2.397770859277708</v>
       </c>
       <c r="I2" t="n">
-        <v>127.0594405594406</v>
+        <v>5.936488169364882</v>
       </c>
       <c r="J2" t="n">
-        <v>339.8613053613054</v>
+        <v>337.4308841843089</v>
       </c>
       <c r="K2" t="n">
-        <v>5.703065268065267</v>
+        <v>5.658555417185553</v>
       </c>
       <c r="L2" t="n">
-        <v>2.999312354312354</v>
+        <v>3.006226650062267</v>
       </c>
       <c r="M2" t="n">
-        <v>4.837867132867133</v>
+        <v>4.87225404732254</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[80.84032634032634, 27.245920745920746, 121.65617715617715, 47.27855477855478, 12.706293706293707, 22.526806526806528, 0.19347319347319347, 14.01048951048951, 3.202797202797203, 4.2191142191142195, 1.6958041958041958, 0.14102564102564102, 2.766899766899767, 0.01048951048951049, 0.21328671328671328, 0.08275058275058275, 0.016317016317016316, 0.04895104895104895, 0.0, 0.004662004662004662, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[29.967365967365968, 24.955710955710956, 31.71794871794872, 26.895104895104897, 30.682983682983682, 28.607226107226108, 26.395104895104897, 32.298368298368295, 23.85198135198135, 30.305361305361306, 24.96153846153846, 29.22261072261072]</t>
+          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[9.096736596736596, 78.74475524475524, 147.26107226107226, 24.203962703962706, 40.34615384615385, 3.1351981351981353, 9.530303030303031, 2.297202797202797, 8.421911421911421, 1.0967365967365967, 2.4510489510489513, 0.6177156177156177, 3.441724941724942, 0.5186480186480187, 1.7074592074592074, 0.4195804195804196, 3.203962703962704, 0.2296037296037296, 0.6923076923076923, 0.14918414918414918, 0.4627039627039627, 0.0675990675990676, 0.18065268065268064, 0.03146853146853147, 0.2902097902097902, 0.024475524475524476, 0.06177156177156177, 0.01282051282051282, 0.10722610722610723, 0.013986013986013986, 0.0337995337995338, 0.009324009324009324]</t>
+          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[7.365967365967366, 121.52331002331002, 50.21561771561772, 77.23892773892774, 13.751748251748252, 18.093240093240095, 0.005827505827505828, 20.990675990675992, 0.0011655011655011655, 4.8776223776223775, 2.5186480186480185, 4.723776223776224, 1.7564102564102564, 1.9055944055944056, 0.0034965034965034965, 4.0979020979020975, 0.0011655011655011655, 1.280885780885781, 0.6188811188811189, 1.444055944055944, 0.6410256410256411, 0.7377622377622378, 0.0, 1.6048951048951048, 0.0, 0.5769230769230769, 0.27972027972027974, 0.5932400932400932, 0.2529137529137529, 0.317016317016317, 0.0, 0.7855477855477856, 0.0, 0.19463869463869463, 0.09090909090909091, 0.26573426573426573, 0.04079254079254079, 0.08391608391608392, 0.0, 0.21561771561771562, 0.0, 0.05244755244755245, 0.04195804195804196, 0.10023310023310024, 0.029137529137529136, 0.027972027972027972, 0.0, 0.12354312354312354, 0.0, 0.026806526806526808, 0.024475524475524476, 0.04428904428904429, 0.009324009324009324, 0.011655011655011656, 0.0, 0.05128205128205128, 0.0, 0.011655011655011656, 0.01048951048951049, 0.024475524475524476, 0.005827505827505828, 0.009324009324009324, 0.0, 0.16083916083916083]</t>
+          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[7.058275058275059, 0.8962703962703963, 5.318181818181818, 2.141025641025641, 0.7634032634032634, 1.5093240093240092, 0.018648018648018648, 1.858974358974359, 0.6818181818181818, 2.7785547785547786, 5.110722610722611, 1.7214452214452214], [1.0734265734265733, 6.023310023310024, 1.175990675990676, 4.488344988344989, 1.8694638694638694, 0.5361305361305362, 1.18997668997669, 0.013986013986013986, 1.2354312354312353, 0.6934731934731935, 1.8496503496503496, 4.721445221445221], [6.188811188811189, 1.3986013986013985, 7.74941724941725, 1.008158508158508, 5.660839160839161, 2.0920745920745922, 0.7703962703962703, 1.832167832167832, 0.01282051282051282, 1.724941724941725, 0.5629370629370629, 2.6317016317016315], [2.303030303030303, 5.001165501165501, 1.1748251748251748, 6.658508158508159, 1.1643356643356644, 4.840326340326341, 1.8018648018648018, 0.6363636363636364, 1.2738927738927739, 0.017482517482517484, 1.2995337995337994, 0.6480186480186481], [0.7972027972027972, 1.9393939393939394, 6.714452214452215, 1.3344988344988344, 7.4044289044289044, 1.1305361305361306, 4.6002331002331, 2.4615384615384617, 0.6165501165501166, 1.7832167832167831, 0.016317016317016316, 1.8041958041958042], [1.5046620046620047, 0.6958041958041958, 2.371794871794872, 5.403263403263403, 1.365967365967366, 7.22027972027972, 0.7808857808857809, 5.20979020979021, 1.8461538461538463, 0.5815850815850816, 1.5163170163170163, 0.018648018648018648], [0.02097902097902098, 1.351981351981352, 0.9405594405594405, 2.0093240093240095, 5.463869463869464, 0.9522144522144522, 6.671328671328672, 1.2389277389277389, 3.6923076923076925, 1.8904428904428905, 0.3916083916083916, 1.7027972027972027], [1.7552447552447552, 0.017482517482517484, 1.4965034965034965, 0.7342657342657343, 2.84032634032634, 5.989510489510489, 1.534965034965035, 8.398601398601398, 0.9813519813519813, 5.672494172494172, 1.9638694638694638, 0.817016317016317], [0.541958041958042, 1.1083916083916083, 0.01282051282051282, 1.2983682983682985, 0.6130536130536131, 2.1386946386946386, 4.578088578088578, 1.1864801864801864, 5.736596736596737, 0.8146853146853147, 3.998834498834499, 1.7529137529137528], [2.62004662004662, 0.548951048951049, 1.7261072261072261, 0.013986013986013986, 1.8857808857808858, 0.7226107226107226, 2.1585081585081585, 6.3776223776223775, 1.1247086247086246, 7.074592074592075, 0.8846153846153846, 5.0874125874125875], [4.604895104895105, 1.6398601398601398, 0.5536130536130536, 1.210955710955711, 0.011655011655011656, 1.3799533799533799, 0.6293706293706294, 2.0641025641025643, 4.558275058275059, 1.1421911421911422, 6.242424242424242, 0.8508158508158508], [1.4207459207459208, 4.2622377622377625, 2.3986013986013988, 0.5268065268065268, 1.5454545454545454, 0.018648018648018648, 1.5967365967365967, 0.921911421911422, 2.0186480186480185, 6.022144522144522, 1.0407925407925407, 7.369463869463869]]</t>
+          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.21445221445221446, 2.9055944055944054, 1.3601398601398602, 1.994172494172494, 0.17715617715617715, 0.17832167832167833, 0.0, 0.32400932400932403, 0.0, 0.022144522144522144, 0.026806526806526808, 0.03613053613053613, 0.015151515151515152, 0.011655011655011656, 0.0, 0.024475524475524476, 0.0, 0.005827505827505828, 0.002331002331002331, 0.008158508158508158, 0.008158508158508158, 0.0034965034965034965, 0.0, 0.006993006993006993, 0.0, 0.0, 0.0, 0.008158508158508158, 0.002331002331002331, 0.0, 0.0, 0.011655011655011656, 0.0, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0], [3.6317016317016315, 65.7016317016317, 15.63053613053613, 16.7995337995338, 3.742424242424242, 5.900932400932401, 0.0, 3.2552447552447554, 0.0, 1.6293706293706294, 0.7016317016317016, 0.8822843822843823, 0.4627039627039627, 0.6468531468531469, 0.0, 0.7424242424242424, 0.0, 0.31585081585081587, 0.16317016317016317, 0.20046620046620048, 0.06526806526806526, 0.16083916083916083, 0.0, 0.2715617715617716, 0.0, 0.09673659673659674, 0.045454545454545456, 0.07459207459207459, 0.06060606060606061, 0.06643356643356643, 0.0, 0.10722610722610723, 0.0, 0.046620046620046623, 0.015151515151515152, 0.024475524475524476, 0.0034965034965034965, 0.029137529137529136, 0.0, 0.009324009324009324, 0.0, 0.008158508158508158, 0.0011655011655011655, 0.005827505827505828, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.0011655011655011655, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0011655011655011655], [0.20745920745920746, 14.955710955710956, 14.213286713286713, 9.421911421911421, 2.222610722610723, 2.423076923076923, 0.0, 2.6317016317016315, 0.0, 0.6631701631701632, 0.5151515151515151, 0.5594405594405595, 0.2062937062937063, 0.2773892773892774, 0.0, 0.5174825174825175, 0.0, 0.19696969696969696, 0.10722610722610723, 0.21561771561771562, 0.12354312354312354, 0.08974358974358974, 0.0, 0.1958041958041958, 0.0, 0.07226107226107226, 0.05128205128205128, 0.06293706293706294, 0.039627039627039624, 0.04195804195804196, 0.0, 0.05710955710955711, 0.0, 0.022144522144522144, 0.005827505827505828, 0.03263403263403263, 0.002331002331002331, 0.01048951048951049, 0.0, 0.005827505827505828, 0.0, 0.013986013986013986, 0.002331002331002331, 0.015151515151515152, 0.0034965034965034965, 0.0, 0.0, 0.008158508158508158, 0.0, 0.0, 0.0, 0.002331002331002331, 0.002331002331002331, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004662004662004662], [2.4592074592074593, 16.165501165501166, 8.356643356643357, 27.855477855477854, 3.231934731934732, 3.5524475524475525, 0.002331002331002331, 6.222610722610723, 0.0, 1.2377622377622377, 0.6456876456876457, 1.719114219114219, 0.5384615384615384, 0.534965034965035, 0.0011655011655011655, 1.3916083916083917, 0.0, 0.4160839160839161, 0.15268065268065267, 0.5011655011655012, 0.17249417249417248, 0.22727272727272727, 0.0, 0.46736596736596736, 0.0, 0.16666666666666666, 0.07342657342657342, 0.23426573426573427, 0.07342657342657342, 0.08391608391608392, 0.0, 0.2692307692307692, 0.0, 0.05244755244755245, 0.037296037296037296, 0.10839160839160839, 0.005827505827505828, 0.008158508158508158, 0.0, 0.08624708624708624, 0.0, 0.009324009324009324, 0.015151515151515152, 0.026806526806526808, 0.004662004662004662, 0.006993006993006993, 0.0, 0.013986013986013986, 0.0, 0.008158508158508158, 0.004662004662004662, 0.016317016317016316, 0.0, 0.0, 0.0, 0.009324009324009324, 0.0, 0.0011655011655011655, 0.0034965034965034965, 0.008158508158508158, 0.0011655011655011655, 0.0, 0.0, 0.04428904428904429], [0.20046620046620048, 3.3205128205128207, 1.9067599067599068, 3.31002331002331, 1.599067599067599, 0.9032634032634033, 0.0, 0.9428904428904429, 0.0, 0.24242424242424243, 0.11655011655011654, 0.2540792540792541, 0.10722610722610723, 0.08741258741258741, 0.002331002331002331, 0.21328671328671328, 0.0, 0.05827505827505827, 0.03496503496503497, 0.0641025641025641, 0.037296037296037296, 0.04895104895104895, 0.0, 0.07342657342657342, 0.0, 0.027972027972027972, 0.016317016317016316, 0.024475524475524476, 0.01282051282051282, 0.013986013986013986, 0.0, 0.04312354312354312, 0.0, 0.023310023310023312, 0.0011655011655011655, 0.011655011655011656, 0.0034965034965034965, 0.005827505827505828, 0.0, 0.0034965034965034965, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.002331002331002331, 0.005827505827505828, 0.0011655011655011655, 0.0, 0.002331002331002331, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.006993006993006993], [0.26107226107226106, 5.094405594405594, 2.315850815850816, 3.6083916083916083, 0.9417249417249417, 2.44988344988345, 0.0011655011655011655, 1.1666666666666667, 0.0, 0.3473193473193473, 0.13286713286713286, 0.2948717948717949, 0.14801864801864803, 0.1282051282051282, 0.0, 0.31002331002331, 0.0, 0.11655011655011654, 0.04195804195804196, 0.10606060606060606, 0.06293706293706294, 0.07109557109557109, 0.0, 0.12937062937062938, 0.0, 0.0641025641025641, 0.02564102564102564, 0.04895104895104895, 0.009324009324009324, 0.03496503496503497, 0.0, 0.047785547785547784, 0.0, 0.016317016317016316, 0.01048951048951049, 0.019813519813519812, 0.008158508158508158, 0.004662004662004662, 0.0, 0.008158508158508158, 0.0, 0.0011655011655011655, 0.0034965034965034965, 0.004662004662004662, 0.0034965034965034965, 0.0034965034965034965, 0.0, 0.008158508158508158, 0.0, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.002331002331002331, 0.0, 0.002331002331002331, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0034965034965034965], [0.0, 0.0011655011655011655, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002331002331002331, 3.8613053613053614, 1.9766899766899766, 5.215617715617715, 0.7587412587412588, 0.9918414918414918, 0.0, 4.175990675990676, 0.0, 0.2902097902097902, 0.18181818181818182, 0.6072261072261073, 0.14219114219114218, 0.11538461538461539, 0.0, 0.6445221445221445, 0.0, 0.11655011655011654, 0.08391608391608392, 0.2738927738927739, 0.12937062937062938, 0.09324009324009325, 0.0, 0.36363636363636365, 0.0, 0.11538461538461539, 0.047785547785547784, 0.11421911421911422, 0.038461538461538464, 0.039627039627039624, 0.0, 0.18414918414918416, 0.0, 0.008158508158508158, 0.013986013986013986, 0.047785547785547784, 0.011655011655011656, 0.005827505827505828, 0.0, 0.07925407925407925, 0.0, 0.011655011655011656, 0.013986013986013986, 0.026806526806526808, 0.004662004662004662, 0.008158508158508158, 0.0, 0.07109557109557109, 0.0, 0.006993006993006993, 0.008158508158508158, 0.01048951048951049, 0.0011655011655011655, 0.004662004662004662, 0.0, 0.01282051282051282, 0.0, 0.0, 0.002331002331002331, 0.009324009324009324, 0.0034965034965034965, 0.002331002331002331, 0.0, 0.039627039627039624], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.045454545454545456, 2.05011655011655, 0.6177156177156177, 1.1946386946386947, 0.12937062937062938, 0.22727272727272727, 0.0, 0.24708624708624707, 0.0, 0.09557109557109557, 0.022144522144522144, 0.04079254079254079, 0.017482517482517484, 0.013986013986013986, 0.0, 0.02097902097902098, 0.0, 0.006993006993006993, 0.004662004662004662, 0.0011655011655011655, 0.013986013986013986, 0.004662004662004662, 0.0, 0.008158508158508158, 0.0, 0.008158508158508158, 0.006993006993006993, 0.0034965034965034965, 0.0, 0.002331002331002331, 0.0, 0.013986013986013986, 0.0, 0.0034965034965034965, 0.0034965034965034965, 0.0034965034965034965, 0.002331002331002331, 0.01282051282051282, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.002331002331002331, 0.002331002331002331, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0034965034965034965, 0.0011655011655011655, 0.005827505827505828, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.01048951048951049], [0.005827505827505828, 0.8717948717948718, 0.5594405594405595, 0.583916083916084, 0.10722610722610723, 0.10606060606060606, 0.0, 0.1258741258741259, 0.0, 0.008158508158508158, 0.016317016317016316, 0.03146853146853147, 0.009324009324009324, 0.013986013986013986, 0.0, 0.02097902097902098, 0.0, 0.004662004662004662, 0.002331002331002331, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.005827505827505828, 0.0, 0.0034965034965034965, 0.0034965034965034965, 0.0011655011655011655, 0.0, 0.004662004662004662, 0.0, 0.004662004662004662, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0034965034965034965], [0.13636363636363635, 1.31002331002331, 0.6398601398601399, 1.5967365967365967, 0.13286713286713286, 0.18764568764568765, 0.0, 0.2925407925407925, 0.0, 0.055944055944055944, 0.013986013986013986, 0.11072261072261072, 0.02097902097902098, 0.016317016317016316, 0.0, 0.037296037296037296, 0.0, 0.0011655011655011655, 0.0034965034965034965, 0.02564102564102564, 0.006993006993006993, 0.009324009324009324, 0.0, 0.016317016317016316, 0.0, 0.005827505827505828, 0.0, 0.01048951048951049, 0.005827505827505828, 0.004662004662004662, 0.0, 0.011655011655011656, 0.0, 0.005827505827505828, 0.0, 0.005827505827505828, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.01048951048951049, 0.0, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.006993006993006993], [0.009324009324009324, 0.6060606060606061, 0.25874125874125875, 0.4289044289044289, 0.05827505827505827, 0.14102564102564102, 0.0, 0.08857808857808858, 0.0011655011655011655, 0.04195804195804196, 0.015151515151515152, 0.016317016317016316, 0.015151515151515152, 0.0034965034965034965, 0.0, 0.004662004662004662, 0.0, 0.006993006993006993, 0.0034965034965034965, 0.005827505827505828, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.008158508158508158, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.002331002331002331], [0.03263403263403263, 0.7144522144522144, 0.27972027972027974, 0.4603729603729604, 0.05944055944055944, 0.15967365967365968, 0.0, 0.07925407925407925, 0.0, 0.011655011655011656, 0.018648018648018648, 0.015151515151515152, 0.0034965034965034965, 0.009324009324009324, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0034965034965034965, 0.0011655011655011655, 0.005827505827505828, 0.0, 0.0011655011655011655, 0.0, 0.005827505827505828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0034965034965034965], [0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011655011655011655, 0.9545454545454546, 0.5536130536130536, 1.416083916083916, 0.1351981351981352, 0.20046620046620048, 0.0, 0.48951048951048953, 0.0, 0.026806526806526808, 0.023310023310023312, 0.047785547785547784, 0.013986013986013986, 0.008158508158508158, 0.0, 0.05827505827505827, 0.0, 0.005827505827505828, 0.0011655011655011655, 0.01048951048951049, 0.0, 0.008158508158508158, 0.0, 0.01048951048951049, 0.0, 0.005827505827505828, 0.0011655011655011655, 0.0011655011655011655, 0.0011655011655011655, 0.008158508158508158, 0.0, 0.015151515151515152, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0034965034965034965, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.01048951048951049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008158508158508158, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331], [0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002331002331002331, 0.47086247086247085, 0.15151515151515152, 0.34498834498834496, 0.05827505827505827, 0.07226107226107226, 0.0011655011655011655, 0.05827505827505827, 0.0, 0.024475524475524476, 0.005827505827505828, 0.006993006993006993, 0.0011655011655011655, 0.0034965034965034965, 0.0, 0.008158508158508158, 0.0, 0.011655011655011656, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0011655011655011655, 0.20279720279720279, 0.12004662004662005, 0.18414918414918416, 0.009324009324009324, 0.02564102564102564, 0.0, 0.024475524475524476, 0.0, 0.006993006993006993, 0.004662004662004662, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.002331002331002331, 0.0034965034965034965, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.053613053613053616, 0.3356643356643357, 0.2505827505827506, 0.46503496503496505, 0.04895104895104895, 0.06643356643356643, 0.0, 0.1048951048951049, 0.0, 0.01282051282051282, 0.011655011655011656, 0.019813519813519812, 0.0, 0.002331002331002331, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0011655011655011655, 0.006993006993006993, 0.0, 0.0034965034965034965, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.22144522144522144, 0.08857808857808858, 0.17016317016317017, 0.026806526806526808, 0.03613053613053613, 0.0, 0.02564102564102564, 0.0, 0.009324009324009324, 0.0034965034965034965, 0.005827505827505828, 0.006993006993006993, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.004662004662004662, 0.0011655011655011655, 0.004662004662004662, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.01282051282051282, 0.23892773892773891, 0.10955710955710955, 0.16783216783216784, 0.029137529137529136, 0.05011655011655012, 0.0, 0.047785547785547784, 0.0, 0.006993006993006993, 0.0011655011655011655, 0.004662004662004662, 0.0034965034965034965, 0.005827505827505828, 0.0, 0.0034965034965034965, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.002331002331002331, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011655011655011655, 0.358974358974359, 0.1864801864801865, 0.5629370629370629, 0.06177156177156177, 0.0780885780885781, 0.0, 0.16433566433566432, 0.0, 0.023310023310023312, 0.018648018648018648, 0.008158508158508158, 0.009324009324009324, 0.006993006993006993, 0.0, 0.017482517482517484, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.01048951048951049, 0.0, 0.0, 0.0, 0.0, 0.0034965034965034965, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0034965034965034965], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011655011655011655, 0.1794871794871795, 0.07459207459207459, 0.12703962703962704, 0.026806526806526808, 0.053613053613053616, 0.0, 0.0337995337995338, 0.0, 0.009324009324009324, 0.004662004662004662, 0.006993006993006993, 0.004662004662004662, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002331002331002331, 0.0675990675990676, 0.03613053613053613, 0.05944055944055944, 0.016317016317016316, 0.013986013986013986, 0.0, 0.017482517482517484, 0.0, 0.018648018648018648, 0.0034965034965034965, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.005827505827505828, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.037296037296037296, 0.12121212121212122, 0.06643356643356643, 0.19813519813519814, 0.030303030303030304, 0.037296037296037296, 0.0, 0.02564102564102564, 0.0, 0.024475524475524476, 0.0011655011655011655, 0.0034965034965034965, 0.0, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05244755244755245, 0.02097902097902098, 0.07226107226107226, 0.016317016317016316, 0.015151515151515152, 0.0, 0.026806526806526808, 0.0, 0.006993006993006993, 0.009324009324009324, 0.0034965034965034965, 0.004662004662004662, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0034965034965034965, 0.055944055944055944, 0.04312354312354312, 0.05011655011655012, 0.006993006993006993, 0.0337995337995338, 0.0, 0.037296037296037296, 0.0, 0.016317016317016316, 0.0011655011655011655, 0.009324009324009324, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0034965034965034965, 0.0, 0.002331002331002331, 0.0, 0.004662004662004662, 0.0, 0.002331002331002331, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13636363636363635, 0.08041958041958042, 0.22727272727272727, 0.03496503496503497, 0.053613053613053616, 0.0, 0.09906759906759907, 0.0, 0.0034965034965034965, 0.006993006993006993, 0.02097902097902098, 0.008158508158508158, 0.005827505827505828, 0.0, 0.013986013986013986, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.002331002331002331, 0.002331002331002331, 0.002331002331002331, 0.0, 0.006993006993006993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002331002331002331, 0.06293706293706294, 0.023310023310023312, 0.029137529137529136, 0.004662004662004662, 0.005827505827505828, 0.0, 0.01048951048951049, 0.0, 0.0034965034965034965, 0.002331002331002331, 0.002331002331002331, 0.0011655011655011655, 0.0034965034965034965, 0.0, 0.006993006993006993, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.006993006993006993, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.016317016317016316, 0.02097902097902098, 0.029137529137529136, 0.0034965034965034965, 0.005827505827505828, 0.0, 0.004662004662004662, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02564102564102564, 0.04195804195804196, 0.03146853146853147, 0.09324009324009325, 0.005827505827505828, 0.006993006993006993, 0.0, 0.024475524475524476, 0.0, 0.0, 0.0034965034965034965, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0034965034965034965, 0.004662004662004662, 0.005827505827505828, 0.0011655011655011655, 0.004662004662004662, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.005827505827505828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.02564102564102564, 0.01048951048951049, 0.015151515151515152, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.006993006993006993, 0.0, 0.004662004662004662, 0.0, 0.0011655011655011655, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011655011655011655, 0.011655011655011656, 0.02097902097902098, 0.08857808857808858, 0.004662004662004662, 0.024475524475524476, 0.0, 0.030303030303030304, 0.0, 0.0034965034965034965, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0034965034965034965, 0.006993006993006993, 0.009324009324009324, 0.009324009324009324, 0.0011655011655011655, 0.0, 0.008158508158508158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.005827505827505828, 0.0034965034965034965, 0.013986013986013986, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009324009324009324, 0.009324009324009324, 0.006993006993006993, 0.037296037296037296, 0.0, 0.008158508158508158, 0.0, 0.006993006993006993, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004662004662004662, 0.002331002331002331, 0.002331002331002331, 0.0011655011655011655, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.004662004662004662, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011655011655011655, 0.0011655011655011655, 0.005827505827505828, 0.0, 0.0011655011655011655, 0.0, 0.006993006993006993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004662004662004662, 0.01048951048951049, 0.024475524475524476, 0.004662004662004662, 0.002331002331002331, 0.0, 0.05710955710955711, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004662004662004662, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0034965034965034965, 0.0034965034965034965, 0.0, 0.004662004662004662, 0.0, 0.006993006993006993, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.002331002331002331, 0.002331002331002331, 0.009324009324009324, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.002331002331002331, 0.008158508158508158, 0.008158508158508158, 0.0034965034965034965, 0.0011655011655011655, 0.0, 0.006993006993006993, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0011655011655011655, 0.0, 0.002331002331002331, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0011655011655011655, 0.0, 0.0011655011655011655, 0.0, 0.0, 0.0, 0.0034965034965034965, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002331002331002331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0</t>
+          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.846817048916997</v>
+        <v>3.590809757418174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.745368858308305</v>
+        <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906724007927074</v>
+        <v>0.5906991495010002</v>
       </c>
       <c r="E3" t="n">
-        <v>2.850148682956015</v>
+        <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.384867095271839</v>
+        <v>1.382981190106598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02078530088134481</v>
+        <v>0.02093743096043811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4378814534466035</v>
+        <v>0.4295189899033051</v>
       </c>
       <c r="I3" t="n">
-        <v>107.6583452902873</v>
+        <v>15.22384905978332</v>
       </c>
       <c r="J3" t="n">
-        <v>91.0484546279481</v>
+        <v>81.5531434743672</v>
       </c>
       <c r="K3" t="n">
-        <v>1.776007228699467</v>
+        <v>1.539005082169607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8739285776566871</v>
+        <v>0.8673466694570817</v>
       </c>
       <c r="M3" t="n">
-        <v>1.77457201145464</v>
+        <v>1.743405014990587</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[56.94590248370562, 26.49583489110066, 38.99769242263309, 24.879158421969592, 9.227125437488354, 12.799597688620533, 0.8277553056417144, 10.04215506328985, 4.625448165360312, 5.323651599068021, 2.858676910264325, 0.738498364142656, 3.8426783760602783, 0.13180473304175302, 1.0069505138664605, 0.6803302953355876, 0.18627611211195247, 0.33786670649341455, 0.0, 0.08349414773227141, 0.0, 0.03411953652285419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[32.64931784890658, 31.786920185680184, 32.94456995467586, 34.12004994436244, 34.180273683023024, 33.72728684393851, 33.66309599519939, 33.59691158722797, 32.01282161607273, 33.11395165334731, 30.900089595777363, 32.98195595814705]</t>
+          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[36.9577811619934, 81.63657526630124, 86.72169348551017, 32.33005245880816, 39.26718281270333, 5.109559236383613, 10.066429248262297, 4.272371980390595, 10.513021566309671, 2.5122011964340616, 4.327023026323209, 1.6636140071586065, 5.308390052547374, 1.3893541420578117, 2.965137815063923, 1.0670696257461543, 5.539359750142572, 0.901803467125413, 1.9434814935012616, 0.7533177811360776, 1.5432032071211885, 0.41823144973437465, 0.7984533669139122, 0.32772143646521396, 1.2994250845638196, 0.16188723083731615, 0.32696618308154224, 0.12242201437051417, 0.41830939316410437, 0.14416453236425464, 0.22130102040317032, 0.12739732794349232]</t>
+          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[14.7982188120144, 97.13947170162254, 57.871241118778144, 60.73827090253898, 16.693106849563243, 17.17212127768307, 0.10225238708871681, 25.507938464679242, 0.03411953652285415, 5.500810530406769, 3.931256854560485, 6.126629459771251, 2.837907265904131, 2.9885861246255563, 0.07625798509536479, 5.8990908611483945, 0.03411953652285413, 2.261800581999855, 1.3606071787838596, 2.4750066952217464, 1.6420451378612488, 1.738765639219713, 0.0, 3.0102891621591854, 0.0, 1.3687415642141245, 0.9367323634977955, 1.5521399591675986, 1.0882492278144944, 1.0160550120995093, 0.0, 2.0587356634834735, 0.0, 0.8309957924006491, 0.5922076461549896, 1.1452814860544263, 0.33375077778081647, 0.52218614552712, 0.0, 1.0898507856479707, 0.0, 0.3492246826197781, 0.30628519109833163, 0.4844673057832849, 0.27369431881815953, 0.24458868791747745, 0.0, 0.661023107644241, 0.0, 0.21150876004344496, 0.20048314017440083, 0.2982407944347229, 0.11789434607367483, 0.12720525547452027, 0.0, 0.31612379502405386, 0.0, 0.11768676514092673, 0.12264373331404063, 0.19458285423743302, 0.07611534670049296, 0.13623906010445044, 0.0, 0.7858036699438388]</t>
+          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[11.843043370631417, 3.7664585310713132, 9.366043436509726, 5.904636072882826, 2.757268601848557, 3.94756208262557, 0.24547568516364937, 4.113757675345462, 2.449997945776283, 6.5490729079230965, 9.132824668426608, 4.796126230174082], [4.058484756039471, 11.395697762984202, 4.362163206644728, 9.04871453799238, 5.273341933138726, 2.201234013251565, 2.9228689564398267, 0.23611109113474435, 3.2549841449280223, 2.694288063668655, 5.327459421438029, 8.45807054545502], [10.237472450584235, 4.730459540167735, 11.78800330017447, 3.915027364687313, 9.617771053717716, 5.594882579704734, 2.6641380928363567, 3.9938519429820736, 0.17021505100474427, 3.636945593262604, 1.8931545800869436, 6.300332780238292], [6.008464515075238, 9.848088501148595, 4.221680117132825, 13.734789972302607, 4.4567108026777955, 8.779022777003362, 5.535677567041219, 2.2084140473120786, 3.2568083963026786, 0.2788959298215971, 3.0839118993852157, 2.387247986846176], [2.8388565294446826, 5.3518234790682, 10.338616635251581, 5.006173209486292, 13.843895895963643, 3.9639076740292993, 8.074960575176398, 6.006332203397108, 2.2585875974010765, 3.806459716462467, 0.27262763904377896, 3.9287216992424936], [3.9247706199928216, 2.599893510259791, 5.871625642658578, 9.840716926622754, 4.270990431075487, 13.848639289770256, 2.96734490953258, 9.198677172699922, 5.437683877628538, 2.367906298420427, 3.5623437784045686, 0.23079277504626478], [0.25461332633392825, 3.2670035085778864, 2.9052577792597347, 6.123812420707834, 9.483845911812278, 3.3189153437388597, 15.387281502402079, 4.086765811043223, 7.828491478167403, 5.4483912246382715, 1.421783402085924, 3.9028429788870174], [3.7107858601651804, 0.2231835829514, 3.386950397615602, 2.406627549598289, 6.232773435266755, 10.195576169106545, 4.621255625212233, 13.288956380403905, 3.7084452273580077, 9.767636661287892, 5.491663522470485, 2.485921093890231], [2.0830623163084145, 2.831910978597113, 0.1833989319776755, 3.2130303097101764, 2.154177867270673, 5.874810450544907, 9.287512486557322, 4.133010435094528, 12.814276296220768, 3.3584487908745433, 8.011282751361284, 5.097375543433075], [6.410049583440239, 2.0209981770492456, 3.619526685134397, 0.1926147157120133, 4.071735328581851, 2.5905470419716647, 5.849953966551571, 10.500063844275292, 4.1621639321492525, 12.241415150227354, 3.5553526610420447, 9.052581703383773], [8.876717105669126, 4.923626118312926, 2.228244681005898, 2.8495321286749404, 0.14437167894827105, 3.3803448049211617, 2.381489382400166, 5.238315264026357, 8.858219304071678, 4.426379479002642, 11.46645943720839, 3.2661476971516055], [4.455047518787092, 8.144241355307017, 6.058925712904682, 2.0323386261249343, 3.6256543935865277, 0.2501785649042814, 3.742665066199682, 2.619580222530021, 5.713202069980231, 10.032730773638686, 3.695201364579869, 12.26541558717369]]</t>
+          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[4.946631355060557, 7.396792061778556, 4.042276122537328, 6.493224984719234, 0.9077959816904208, 0.8388281197431169, 0.0, 1.814833148406857, 0.0, 0.22276932072334446, 0.3281356708926618, 0.3051232189862218, 0.16302441042721302, 0.15223069340098586, 0.0, 0.2565823749504514, 0.0, 0.1022523870887146, 0.04822415120181136, 0.12282082028769878, 0.13196952764614014, 0.07625798509536502, 0.0, 0.12754651767183672, 0.0, 0.0, 0.0, 0.12282082028769875, 0.04822415120181141, 0.0, 0.0, 0.15223069340098594, 0.0, 0.03411953652285409, 0.0, 0.07625798509536474, 0.0, 0.03411953652285412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.06823907304570821, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0], [8.775071820186843, 74.44867772535099, 20.464702682661155, 17.32338516117247, 5.632911505176226, 7.7946083850665415, 0.0, 4.577117174605805, 0.0, 3.058127590395375, 1.8597746923523657, 1.8426160594211494, 1.3121747135177813, 1.8013192858503175, 0.0, 1.7601109037344747, 0.0, 1.061843203773101, 0.6989470745360805, 0.8260895987006319, 0.4241335447772858, 0.8177832591703368, 0.0, 0.9928216172439078, 0.0, 0.5255376450832072, 0.33662813263619745, 0.4961696022090634, 0.46163851897456437, 0.40568984489211163, 0.0, 0.6296252614488652, 0.0, 0.36472552207280706, 0.1832210833614636, 0.24733077138360574, 0.07625798509536456, 0.32436339259597285, 0.0, 0.10755498363691786, 0.0, 0.1129333943753587, 0.034119536522854106, 0.1022523870887168, 0.04822415120181139, 0.03411953652285413, 0.0, 0.05902777278368586, 0.0, 0.03411953652285409, 0.04822415120181146, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.034119536522854106], [2.430639756995979, 20.237872048562323, 29.158556352207004, 15.34419656985795, 4.592798831816542, 4.839549464298612, 0.0, 5.680049094022857, 0.0, 1.8153888206420268, 1.6050267156433748, 1.5974442479331536, 0.9239660724366452, 1.0207528141869417, 0.0, 1.7341482402488715, 0.0, 0.7351578182470409, 0.6089227736039459, 0.9167635396644919, 0.8284737764449265, 0.5420432546990482, 0.0, 0.8870375088350454, 0.0, 0.4941614987561506, 0.5351770176872296, 0.4485165897010504, 0.3141063481744613, 0.4046488455639222, 0.0, 0.4042340474940404, 0.0, 0.32491572168732524, 0.10225238708871527, 0.31858926924512426, 0.06823907304570832, 0.17037458527380095, 0.0, 0.0901362764614701, 0.0, 0.23611109113474552, 0.04822415120181141, 0.18322108336146342, 0.07625798509536491, 0.0, 0.0, 0.13196952764614134, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0682390730457082, 0.0, 0.0, 0.07625798509536467, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0834941477322713], [7.758225371200582, 16.83134836208602, 14.426280212200155, 42.71150687629109, 5.713930650867197, 5.013750307373242, 0.0682390730457082, 10.237077894277142, 0.0, 2.649162356837784, 1.8283856880081537, 3.7716440688765744, 1.5626880378157293, 1.5034734643434513, 0.034119536522854106, 3.4560881015280667, 0.0, 1.3320760572612564, 0.6173471654797773, 1.4582371268294823, 0.7560716644962625, 0.9253499421102406, 0.0, 1.5590872976623897, 0.0, 0.7283524425010709, 0.42963383047837544, 1.0510914448432307, 0.6224005391134652, 0.5199493900847144, 0.0, 1.2360209921892353, 0.0, 0.43805016708244104, 0.40221781259931744, 0.8270764505379516, 0.09013627646147014, 0.102092846145742, 0.0, 0.731905037035154, 0.0, 0.13623906010445136, 0.17674547535126678, 0.26964417951652947, 0.09644830240362279, 0.10773165508896444, 0.0, 0.15951619683846482, 0.0, 0.13196952764614137, 0.08349414773227126, 0.15929463462256183, 0.0, 0.0, 0.0, 0.11789434607367484, 0.0, 0.03411953652285409, 0.07625798509536491, 0.13196952764614137, 0.0341195365228541, 0.0, 0.0, 0.2821764734010355], [1.1483848054746377, 4.861827307914177, 4.324611195930611, 5.768002506345604, 5.862257221982743, 2.3407236101677573, 0.0, 2.571178253778967, 0.0, 0.967764683186478, 0.6223732571894097, 0.8748031564205532, 0.5673058216363301, 0.4686488737152396, 0.06823907304570821, 0.9211124642923653, 0.0, 0.38486253272849263, 0.32558186920650417, 0.39736069669777485, 0.27483100721186754, 0.34469684654593485, 0.0, 0.42417357724110716, 0.0, 0.26295938009739067, 0.17991049889470687, 0.2698657483420618, 0.16322426675450505, 0.23112214308853476, 0.0, 0.2631272147157014, 0.0, 0.2035059821512101, 0.03411953652285417, 0.1522306934009859, 0.059027772783686205, 0.10225238708871738, 0.0, 0.059027772783686816, 0.0, 0.04822415120181154, 0.034119536522854134, 0.04822415120181141, 0.14063982362528035, 0.03411953652285416, 0.0, 0.048224151201811435, 0.0, 0.05902777278368608, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.09630735785600773], [1.9195715739227512, 7.225259462263732, 4.824592743287591, 5.5340037627541205, 2.42824441054641, 5.663890550105308, 0.034119536522854176, 2.81006488296351, 0.0, 1.1117610478969848, 0.723283392451536, 1.1427267903409737, 0.7259762591089203, 0.6618979525934241, 0.0, 1.1724964895916117, 0.0, 0.6915616835638351, 0.30245597358150966, 0.514757150572803, 0.40767891320501576, 0.4106155055891966, 0.0, 0.6132186665702111, 0.0, 0.3472743670127468, 0.20322544073545226, 0.36760431490357687, 0.12739732794349273, 0.2530721470212759, 0.0, 0.325742459336275, 0.0, 0.17991049889470737, 0.16339062695337703, 0.24299790919503733, 0.13196952764613898, 0.08349414773227179, 0.0, 0.12282082028769845, 0.0, 0.03411953652285413, 0.07625798509536444, 0.08349414773227118, 0.07625798509536424, 0.059027772783685914, 0.0, 0.13196952764614128, 0.0, 0.0, 0.048224151201811394, 0.03411953652285415, 0.03411953652285413, 0.034119536522854085, 0.0, 0.04822415120181142, 0.0, 0.04822415120181137, 0.0, 0.06823907304570818, 0.0, 0.0, 0.0, 0.059027772783686594], [0.0, 0.034119536522854176, 0.0, 0.0, 0.0682390730457082, 0.0, 0.034119536522854176, 0.0, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04822415120181142, 4.604205959244884, 4.066683929355055, 9.272054331063547, 2.0205988866649993, 2.342707499260117, 0.0, 12.43024478133553, 0.0, 1.0702252133406867, 0.937210787487124, 2.4553436321906226, 0.7295404248771523, 0.6141085254052683, 0.0, 2.8462094479390285, 0.0, 0.5994801442020637, 0.5016964715856095, 1.1499646280843685, 0.6951713747388147, 0.5839149207401105, 0.0, 1.6331878013795955, 0.0, 0.5728684247053457, 0.3693388418748752, 0.630246304394888, 0.33749863028431154, 0.2828688376535651, 0.0, 0.902537493105967, 0.0, 0.14858654343226982, 0.17351490344005976, 0.43053714017320793, 0.22094164309692263, 0.11307764145198282, 0.0, 0.6131909761289365, 0.0, 0.12720525547452025, 0.19261471571201277, 0.22225651899802482, 0.06811953005222522, 0.1485865434322702, 0.0, 0.5001901388625587, 0.0, 0.10773165508896385, 0.11293339437535925, 0.131804733041755, 0.0341195365228541, 0.0834941477322713, 0.0, 0.1315984495863714, 0.0, 0.0, 0.06823907304570834, 0.10755498363691623, 0.059027772783686754, 0.048224151201811345, 0.0, 0.321441756194647], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4842836161736897, 3.310442084215173, 1.8669655280060866, 2.521815154999515, 0.6074900213477883, 0.9378606179350142, 0.0, 1.215487525630104, 0.0, 0.6691357280610555, 0.24279658065868615, 0.40620516402718915, 0.23339433660872905, 0.17351490344005838, 0.0, 0.19795686476048713, 0.0, 0.15251597019072813, 0.08349414773227194, 0.03411953652285417, 0.20435859015667798, 0.06811953005222522, 0.0, 0.0899552494473536, 0.0, 0.10209284614574159, 0.09630735785600643, 0.10235860956855948, 0.0, 0.048224151201811574, 0.0, 0.31258037256821325, 0.0, 0.05902777278368558, 0.07625798509536445, 0.07625798509536467, 0.048224151201811394, 0.27914908658205867, 0.0, 0.034119536522854176, 0.0, 0.0, 0.03411953652285415, 0.04822415120181145, 0.06823907304570835, 0.06823907304570821, 0.0, 0.0, 0.0, 0.05902777278368553, 0.03411953652285408, 0.09013627646147013, 0.0, 0.07625798509536484, 0.0, 0.0, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.11274077784991385], [0.12295346813874423, 1.8909357570199237, 1.6750842902176475, 1.92531232654071, 0.6203006998218964, 0.6195611696571627, 0.0, 0.7115477683050834, 0.0, 0.11293339437536046, 0.30106950341673866, 0.4707658166625258, 0.10755498363691648, 0.16666259143794315, 0.0, 0.23059257206556988, 0.0, 0.10785767180661318, 0.0482241512018114, 0.059027772783686344, 0.0, 0.0, 0.0, 0.11307764145198124, 0.0, 0.059027772783685824, 0.10235860956856205, 0.03411953652285411, 0.0, 0.10785767180661346, 0.0, 0.10785767180661326, 0.0, 0.048224151201811415, 0.03411953652285415, 0.048224151201811415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285414, 0.0, 0.0, 0.0, 0.04822415120181137, 0.0, 0.0, 0.0341195365228541, 0.0, 0.034119536522854106, 0.0, 0.0, 0.05902777278368569], [0.8657194850198098, 2.331384584042432, 1.849751694801371, 3.962009400257384, 0.630289409654072, 0.7655071633368951, 0.0, 1.2048717450399757, 0.0, 0.40583547212718496, 0.18010670183759328, 0.9634832349523161, 0.3007806037427498, 0.1862761121119533, 0.0, 0.3427683247955275, 0.0, 0.03411953652285415, 0.07625798509536472, 0.2400366556989478, 0.20471721913712318, 0.12739732794349254, 0.0, 0.15929463462256158, 0.0, 0.09013627646147004, 0.0, 0.18979069076281638, 0.14063982362528094, 0.08349414773227158, 0.0, 0.14437167894827097, 0.0, 0.09013627646147013, 0.0, 0.1022523870887142, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.15609450549335505, 0.0, 0.034119536522854085, 0.0, 0.10235860956856235, 0.0, 0.0, 0.034119536522854106, 0.034119536522854085, 0.03411953652285409, 0.0, 0.0, 0.08349414773227214, 0.0, 0.07625798509536458, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08333129571897079], [0.11789434607367567, 1.4535738790883486, 0.9611081893839982, 1.2820088994901653, 0.41121550320630085, 1.0719652221835176, 0.0, 0.6306729166677923, 0.03411953652285415, 0.38698149081086264, 0.1767454753512662, 0.20418569229148367, 0.2285125467806177, 0.07625798509536401, 0.0, 0.08349414773227164, 0.0, 0.1525159701907286, 0.05902777278368581, 0.12295346813874271, 0.034119536522854176, 0.0, 0.0, 0.03411953652285413, 0.0, 0.23883675565998064, 0.0, 0.0, 0.07625798509536418, 0.0, 0.0, 0.059027772783686296, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10785767180661299, 0.0, 0.03411953652285417, 0.0341195365228541, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.04822415120181142], [0.3662419352179292, 1.8164749773359339, 1.014387831324544, 1.3972803590164293, 0.3921855138018874, 0.8535710728964931, 0.0, 0.5024540274123065, 0.0, 0.14437167894827088, 0.19221937648567278, 0.21807333485358107, 0.05902777278368583, 0.27295629218283335, 0.0, 0.0341195365228541, 0.0, 0.03411953652285413, 0.0, 0.0, 0.03411953652285409, 0.04822415120181135, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.07625798509536484, 0.03411953652285412, 0.14063982362528066, 0.0, 0.03411953652285415, 0.0, 0.1406398236252807, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285412, 0.0, 0.034119536522854106, 0.03411953652285414, 0.0, 0.0, 0.03411953652285414, 0.0, 0.0, 0.0, 0.03411953652285415, 0.034119536522854134, 0.0, 0.03411953652285415, 0.0, 0.0, 0.06823907304570817, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05902777278368628], [0.0, 0.06823907304570821, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0341195365228541, 1.8907292141447847, 1.6143419710385547, 3.486313239266121, 0.8238271427967435, 0.87274171685296, 0.0, 2.7063780306457246, 0.0, 0.24232616359182135, 0.22525251185133968, 0.33282150542963707, 0.1520342550966944, 0.15623368145234287, 0.0, 0.5144601885941387, 0.0, 0.102252387088716, 0.03411953652285412, 0.14036912047601524, 0.0, 0.14858654343226968, 0.0, 0.13180473304175497, 0.0, 0.09013627646147006, 0.03411953652285413, 0.03411953652285409, 0.03411953652285416, 0.15623368145234293, 0.0, 0.2952677073457228, 0.0, 0.048224151201811526, 0.034119536522854155, 0.0, 0.03411953652285415, 0.10235860956856252, 0.0, 0.07625798509536479, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570834, 0.0, 0.21834724169368064, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12282082028769897, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048224151201811435], [0.0, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06823907304570821, 1.4198770268215326, 0.6657654429765807, 1.0870521342242492, 0.3787573952230971, 0.4548621214795653, 0.03411953652285416, 0.35656717195946275, 0.0, 0.3137969849588213, 0.09013627646147013, 0.17393713851913908, 0.03411953652285411, 0.07625798509536505, 0.0, 0.14858654343226985, 0.0, 0.19872392993889976, 0.06823907304570834, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048224151201811345, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285412, 0.0, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.0, 0.034119536522854134, 0.0, 0.0, 0.0, 0.0, 0.03411953652285417], [0.034119536522854085, 0.7085173517008444, 0.6410902701050044, 0.7376839811638647, 0.09610968824283654, 0.21438886264011828, 0.0, 0.2519990333398362, 0.0, 0.10773165508896412, 0.08349414773227123, 0.0, 0.0, 0.0, 0.0, 0.03411953652285412, 0.0, 0.0, 0.06823907304570835, 0.10235860956856031, 0.07625798509536419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285417, 0.0, 0.0, 0.0, 0.034119536522854106], [0.5349485297919451, 1.0759766373668491, 0.9711002991132719, 1.4705544396868921, 0.3343993256956493, 0.433467730700465, 0.0, 0.7116737556293318, 0.0, 0.17021505100474532, 0.1736870490461277, 0.2429979091950379, 0.0, 0.04822415120181147, 0.0, 0.07625798509536418, 0.0, 0.0, 0.03411953652285416, 0.10773165508896342, 0.0, 0.07625798509536427, 0.0, 0.04822415120181148, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.03411953652285417, 0.0, 0.048224151201811435, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04822415120181141, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854134], [0.0, 0.9703803401631014, 0.519175499819792, 0.7457386141280372, 0.2517617409836813, 0.2728592313199159, 0.0, 0.24003665569894772, 0.0, 0.16698829546454352, 0.059027772783685886, 0.10225238708871459, 0.14467245360543507, 0.03411953652285409, 0.0, 0.03411953652285409, 0.0, 0.0, 0.09644830240362301, 0.03411953652285418, 0.09644830240362294, 0.06823907304570834, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285409], [0.24820796969997155, 0.8967825248499541, 0.6310734109451169, 0.8567789246232183, 0.26504070534793867, 0.3324784872108714, 0.0, 0.35320839240095087, 0.0, 0.10773165508896335, 0.03411953652285409, 0.08349414773227193, 0.07625798509536448, 0.14063982362528069, 0.0, 0.07625798509536445, 0.0, 0.034119536522854134, 0.03411953652285418, 0.06823907304570834, 0.06823907304570834, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0341195365228541, 0.0, 0.03411953652285419, 0.0, 0.034119536522854155, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03411953652285414, 1.0985452859410305, 0.8432946614150065, 1.904203850973459, 0.39772972752984287, 0.5308304454822569, 0.0, 1.0263592791254494, 0.0, 0.20350598215120916, 0.297035923717304, 0.11293339437536108, 0.19289660480724624, 0.09630735785600797, 0.0, 0.28713227671764563, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.034119536522854155, 0.0, 0.16339062695337722, 0.0, 0.0, 0.0, 0.0, 0.10235860956856252, 0.03411953652285414, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.0, 0.03411953652285418, 0.0, 0.0, 0.03411953652285418, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.059027772783685505], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03411953652285418, 0.7212710342494576, 0.5389557666871608, 0.5924472974826558, 0.25634932524611326, 0.38553961145054383, 0.0, 0.2688571459744147, 0.0, 0.1362390601044521, 0.09644830240362276, 0.2047172191371248, 0.06811953005222558, 0.03411953652285414, 0.0, 0.10235860956856244, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0341195365228541, 0.0, 0.0341195365228541, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.03411953652285416, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285408, 0.0, 0.03411953652285417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06823907304570823, 0.37097372986625254, 0.32724026761773944, 0.47054069413295774, 0.19243126636424546, 0.14416453236425444, 0.0, 0.19533535277571118, 0.0, 0.2681665968415433, 0.07625798509536397, 0.03411953652285414, 0.0, 0.0, 0.0, 0.1406398236252807, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.034119536522854155, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3844387529713496, 0.6158303464515573, 0.4198086015121624, 0.983735457454347, 0.27568968656359, 0.34950268832318937, 0.0, 0.21438886264011833, 0.0, 0.3247484484370229, 0.03411953652285411, 0.07625798509536492, 0.0, 0.03411953652285415, 0.0, 0.0762579850953648, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.0, 0.09644830240362325, 0.0, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0482241512018116, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285409, 0.0, 0.0, 0.03411953652285412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.384186028626641, 0.20940134901142754, 0.5604691399024506, 0.179910498894708, 0.18947550691092097, 0.0, 0.3420482829019724, 0.0, 0.15251597019072943, 0.21571534361322667, 0.05902777278368592, 0.09644830240362312, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0482241512018116, 0.03411953652285419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07625798509536492, 0.3697707431161453, 0.3003580398508816, 0.29927065255218294, 0.1077316550889648, 0.27739172591033134, 0.0, 0.3721144252271793, 0.0, 0.2098161082175408, 0.03411953652285413, 0.11789434607367527, 0.06823907304570836, 0.03411953652285416, 0.0, 0.07625798509536448, 0.0, 0.04822415120181136, 0.0, 0.13647814609141667, 0.0, 0.06823907304570816, 0.0, 0.06823907304570834, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0341195365228541], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6286158385139613, 0.523849665429808, 1.1530247128994817, 0.3183418742389926, 0.4965308549320228, 0.0, 0.5997078290958396, 0.0, 0.059027772783686185, 0.1180555455673721, 0.22025196850383022, 0.08995524944735395, 0.09013627646147013, 0.0, 0.1735149034400577, 0.0, 0.04822415120181136, 0.03411953652285415, 0.048224151201811345, 0.06823907304570821, 0.06823907304570834, 0.0, 0.1446724536054356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.03411953652285418, 0.0, 0.03411953652285419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06823907304570823, 0.4485165897010502, 0.3371583560174667, 0.25150262125537814, 0.08349414773227148, 0.10225238708871706, 0.0, 0.12264373331404137, 0.0, 0.07625798509536465, 0.048224151201811415, 0.06823907304570818, 0.034119536522854155, 0.10235860956856158, 0.0, 0.12754651767183686, 0.0, 0.06823907304570827, 0.0, 0.0, 0.0, 0.0, 0.0, 0.20471721913712385, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2206463322368202, 0.2636094660835066, 0.30587023196342034, 0.10235860956855987, 0.10225238708871665, 0.0, 0.08349414773227137, 0.0, 0.03411953652285417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4547545989468263, 0.36208653051747236, 0.2734361118886626, 0.6624641368142372, 0.11307764145198156, 0.09630735785600789, 0.0, 0.2519990333398359, 0.0, 0.0, 0.07625798509536472, 0.034119536522854085, 0.0, 0.0, 0.0, 0.06823907304570816, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05902777278368617, 0.10785767180661336, 0.09013627646147014, 0.034119536522854106, 0.09644830240362305, 0.0, 0.07625798509536452, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048224151201811394, 0.0, 0.17059768261426905, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285417], [0.0, 0.3228585490569826, 0.14844019777072823, 0.23355724430461638, 0.03411953652285416, 0.03411953652285419, 0.0, 0.08333129571897256, 0.0, 0.10785767180661342, 0.0, 0.03411953652285409, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0341195365228541, 0.15970343247515773, 0.22025196850382933, 0.6940204692473735, 0.08349414773227204, 0.3809049676616116, 0.0, 0.2921109593999245, 0.0, 0.0762579850953649, 0.0, 0.04822415120181141, 0.0, 0.0, 0.0, 0.13647814609141637, 0.0, 0.0, 0.0, 0.0341195365228541, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0762579850953643, 0.12754651767183864, 0.10755498363691537, 0.21024297167603473, 0.034119536522854106, 0.0, 0.1319695276461388, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10225238708871623, 0.07625798509536415, 0.17351490344005757, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.10235860956856252, 0.0, 0.0, 0.06823907304570832, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13623906010445072, 0.13623906010445147, 0.12754651767183825, 0.31439164402877773, 0.0, 0.10209284614574142, 0.0, 0.09630735785600693, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0682390730457082, 0.0, 0.0, 0.0, 0.0, 0.13647814609141667, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08349414773227128, 0.048224151201811366, 0.048224151201811394, 0.0341195365228541, 0.0, 0.0, 0.07625798509536418, 0.0, 0.0, 0.0, 0.0, 0.13647814609141665, 0.03411953652285416, 0.0, 0.0, 0.0, 0.0, 0.03411953652285417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.034119536522854106, 0.034119536522854155, 0.11307764145198143, 0.0, 0.03411953652285417, 0.0, 0.15251597019072893, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.06823907304570834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285413, 0.0, 0.0, 0.0, 0.034119536522854106], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08349414773227143, 0.14844019777072842, 0.19458285423743296, 0.08349414773227133, 0.0682390730457082, 0.0, 0.5224579166885276, 0.0, 0.03411953652285418, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09644830240362273, 0.0, 0.0, 0.0, 0.034119536522854106, 0.06823907304570832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0341195365228541], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0762579850953643, 0.07625798509536484, 0.0, 0.08349414773227118, 0.0, 0.08333129571897158, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04822415120181146, 0.06823907304570821, 0.1445409417056163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570834, 0.0, 0.0, 0.0341195365228541, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06823907304570828, 0.12282082028769897, 0.10209284614574365, 0.05902777278368665, 0.034119536522854085, 0.0, 0.15251597019072968, 0.0, 0.0, 0.0, 0.06823907304570817, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854106, 0.0, 0.0, 0.0, 0.034119536522854085, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0682390730457082, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0341195365228541, 0.0, 0.048224151201811394, 0.04822415120181141, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.034119536522854085, 0.0, 0.0341195365228541, 0.0, 0.0, 0.0, 0.07625798509536484, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570821, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.034119536522854176, 0.04822415120181142, 0.20075398111003825, 0.0, 0.0, 0.0, 0.1833989319776747, 0.0, 0.0341195365228541, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06823907304570838, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034119536522854176, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.048224151201811394, 0.0, 0.03411953652285415, 0.0, 0.03411953652285409, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03411953652285415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.</t>
+          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.626</v>
+        <v>16.1107</v>
       </c>
       <c r="C4" t="n">
-        <v>13.24</v>
+        <v>14.22</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3392</v>
+        <v>3.4359</v>
       </c>
       <c r="E4" t="n">
-        <v>20.53</v>
+        <v>21.99</v>
       </c>
       <c r="F4" t="n">
-        <v>5.697600000000001</v>
+        <v>6.076499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.017</v>
+        <v>0.0138</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2307</v>
+        <v>2.4366</v>
       </c>
       <c r="I4" t="n">
-        <v>121.26</v>
+        <v>11.9</v>
       </c>
       <c r="J4" t="n">
-        <v>322.27</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
-        <v>6.1557</v>
+        <v>5.9058</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8006</v>
+        <v>2.8471</v>
       </c>
       <c r="M4" t="n">
-        <v>4.658899999999999</v>
+        <v>4.912299999999999</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[83.45, 25.24, 118.11, 41.07, 11.19, 19.75, 0.4, 12.45, 2.01, 3.38, 1.62, 0.12, 1.73, 0.07, 0.36, 0.09, 0.0, 0.05, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.02, 0.01, 0.07, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[77.76, 24.88, 107.78, 46.63, 12.39, 25.1, 0.92, 13.44, 2.51, 3.59, 2.06, 0.35, 2.44, 0.07, 0.33, 0.15, 0.05, 0.13, 0.01, 0.1, 0.02, 0.01, 0.03, 0.02, 0.07, 0.01, 0.09, 0.02, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[30.82, 22.34, 29.74, 26.75, 30.54, 28.63, 24.33, 31.33, 21.98, 26.79, 25.86, 23.16]</t>
+          <t>[55.42, 2.36, 54.3, 2.03, 61.19, 14.12, 3.8, 46.38, 2.37, 56.84, 1.34, 21.85]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[5.93, 90.28, 134.45, 23.01, 33.67, 3.69, 7.74, 2.21, 5.9, 1.31, 2.56, 0.67, 2.68, 0.71, 1.44, 0.38, 2.18, 0.33, 0.7, 0.2, 0.57, 0.07, 0.22, 0.06, 0.32, 0.04, 0.14, 0.01, 0.11, 0.03, 0.03, 0.01]</t>
+          <t>[11.05, 73.12, 140.32, 22.6, 34.82, 3.9, 9.42, 2.94, 7.29, 1.54, 3.41, 1.03, 3.28, 0.84, 1.77, 0.5, 1.79, 0.3, 0.42, 0.06, 0.39, 0.03, 0.15, 0.02, 0.1, 0.04, 0.03, 0.03, 0.05, 0.0, 0.01, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[6.22, 122.85, 45.55, 73.56, 11.03, 14.34, 0.0, 21.44, 0.0, 4.07, 1.63, 4.97, 1.15, 1.75, 0.0, 3.84, 0.0, 0.98, 0.37, 1.26, 0.37, 0.56, 0.0, 1.35, 0.0, 0.52, 0.2, 0.58, 0.18, 0.22, 0.0, 0.99, 0.0, 0.16, 0.06, 0.23, 0.04, 0.05, 0.0, 0.28, 0.0, 0.05, 0.01, 0.18, 0.03, 0.06, 0.0, 0.31, 0.0, 0.1, 0.03, 0.04, 0.0, 0.02, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.29]</t>
+          <t>[3.01, 105.11, 50.54, 84.3, 12.06, 17.66, 0.0, 18.75, 0.0, 4.37, 2.26, 4.62, 1.68, 1.8, 0.0, 3.66, 0.0, 1.15, 0.54, 1.47, 0.67, 0.97, 0.0, 1.76, 0.0, 0.55, 0.36, 0.54, 0.27, 0.4, 0.0, 1.12, 0.0, 0.23, 0.1, 0.39, 0.07, 0.09, 0.0, 0.37, 0.02, 0.08, 0.04, 0.09, 0.05, 0.06, 0.0, 0.14, 0.0, 0.05, 0.02, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.21]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[7.61, 0.63, 6.33, 1.58, 0.46, 1.64, 0.06, 1.56, 0.58, 2.53, 5.87, 1.82], [0.7, 5.29, 1.14, 3.64, 2.56, 0.29, 1.07, 0.03, 1.14, 0.56, 1.61, 4.26], [7.24, 1.17, 7.37, 0.94, 4.13, 2.72, 0.46, 1.9, 0.0, 1.51, 0.73, 1.49], [1.67, 3.98, 1.19, 8.72, 1.23, 4.64, 1.34, 0.7, 1.28, 0.06, 1.26, 0.63], [0.63, 2.35, 5.08, 1.49, 8.77, 0.92, 5.65, 1.97, 0.69, 1.36, 0.01, 1.58], [1.52, 0.43, 3.21, 5.18, 1.24, 7.64, 0.57, 5.71, 1.25, 0.65, 1.08, 0.04], [0.03, 1.33, 0.53, 1.55, 6.32, 0.67, 6.62, 1.14, 3.11, 1.44, 0.36, 1.16], [1.58, 0.05, 1.6, 0.61, 2.14, 6.78, 1.4, 8.49, 0.82, 4.96, 2.22, 0.56], [0.48, 0.95, 0.03, 1.27, 0.67, 1.38, 4.03, 1.01, 5.74, 0.67, 4.24, 1.4], [2.07, 0.54, 1.1, 0.03, 1.68, 0.6, 1.55, 6.2, 0.96, 6.61, 1.34, 4.07], [5.35, 1.48, 0.73, 1.2, 0.03, 1.27, 0.41, 2.01, 4.68, 1.75, 6.57, 0.3], [1.85, 4.11, 1.33, 0.43, 1.19, 0.05, 1.12, 0.49, 1.69, 4.56, 0.48, 5.76]]</t>
+          <t>[[13.92, 0.15, 14.05, 0.06, 4.78, 0.76, 0.13, 3.69, 0.07, 10.23, 0.05, 7.4], [0.06, 0.5, 0.15, 0.5, 0.14, 0.15, 0.24, 0.06, 0.24, 0.05, 0.17, 0.04], [14.32, 0.13, 13.24, 0.04, 16.51, 0.83, 0.18, 3.38, 0.05, 3.45, 0.02, 1.96], [0.06, 0.44, 0.05, 0.43, 0.1, 0.29, 0.18, 0.04, 0.21, 0.04, 0.18, 0.0], [4.97, 0.12, 17.98, 0.11, 15.14, 4.33, 0.5, 10.57, 0.13, 5.58, 0.05, 1.56], [0.52, 0.19, 0.9, 0.3, 4.74, 3.91, 0.35, 2.14, 0.23, 0.53, 0.17, 0.07], [0.1, 0.18, 0.18, 0.15, 0.54, 0.39, 1.04, 0.27, 0.46, 0.33, 0.09, 0.04], [3.94, 0.05, 3.28, 0.03, 11.49, 2.3, 0.3, 11.04, 0.1, 12.7, 0.04, 1.0], [0.07, 0.27, 0.1, 0.18, 0.13, 0.19, 0.41, 0.07, 0.48, 0.19, 0.26, 0.01], [11.03, 0.06, 3.17, 0.04, 6.08, 0.64, 0.24, 13.32, 0.18, 16.19, 0.01, 5.69], [0.05, 0.22, 0.0, 0.18, 0.09, 0.17, 0.11, 0.01, 0.13, 0.07, 0.3, 0.0], [6.14, 0.05, 1.16, 0.01, 1.19, 0.15, 0.12, 1.57, 0.08, 7.26, 0.0, 4.08]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.07, 3.44, 0.87, 1.23, 0.24, 0.12, 0.0, 0.14, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.8, 72.97, 14.86, 14.76, 2.25, 5.24, 0.0, 2.59, 0.0, 1.47, 0.55, 0.99, 0.32, 0.79, 0.0, 0.65, 0.0, 0.27, 0.1, 0.14, 0.07, 0.1, 0.0, 0.11, 0.0, 0.06, 0.02, 0.03, 0.07, 0.03, 0.0, 0.07, 0.0, 0.06, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.21, 13.75, 16.24, 7.15, 1.81, 1.84, 0.0, 1.48, 0.0, 0.5, 0.37, 0.38, 0.2, 0.22, 0.0, 0.32, 0.0, 0.16, 0.11, 0.09, 0.06, 0.06, 0.0, 0.11, 0.0, 0.1, 0.06, 0.04, 0.02, 0.01, 0.0, 0.07, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.71, 13.8, 6.47, 30.41, 2.87, 2.63, 0.0, 6.99, 0.0, 1.02, 0.37, 1.8, 0.32, 0.39, 0.0, 1.6, 0.0, 0.32, 0.06, 0.54, 0.15, 0.21, 0.0, 0.46, 0.0, 0.12, 0.05, 0.21, 0.04, 0.05, 0.0, 0.29, 0.0, 0.04, 0.02, 0.12, 0.01, 0.0, 0.0, 0.11, 0.0, 0.01, 0.0, 0.04, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.12, 2.1, 1.47, 3.2, 1.86, 0.61, 0.0, 0.76, 0.0, 0.17, 0.03, 0.14, 0.05, 0.02, 0.0, 0.13, 0.0, 0.06, 0.03, 0.01, 0.02, 0.02, 0.0, 0.05, 0.0, 0.03, 0.0, 0.02, 0.02, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.08, 4.87, 1.87, 2.74, 0.65, 1.85, 0.0, 0.95, 0.0, 0.22, 0.05, 0.21, 0.03, 0.07, 0.0, 0.14, 0.0, 0.08, 0.01, 0.09, 0.0, 0.04, 0.0, 0.12, 0.0, 0.05, 0.02, 0.02, 0.0, 0.05, 0.0, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 3.32, 1.04, 5.77, 0.65, 0.87, 0.0, 5.91, 0.0, 0.23, 0.08, 0.67, 0.13, 0.07, 0.0, 0.69, 0.0, 0.02, 0.04, 0.21, 0.06, 0.07, 0.0, 0.34, 0.0, 0.06, 0.01, 0.14, 0.02, 0.03, 0.0, 0.26, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.09, 0.0, 0.01, 0.01, 0.02, 0.0, 0.02, 0.0, 0.25, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.09], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 1.83, 0.42, 0.8, 0.13, 0.24, 0.0, 0.17, 0.0, 0.12, 0.05, 0.04, 0.02, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.02, 0.64, 0.4, 0.27, 0.04, 0.07, 0.0, 0.07, 0.0, 0.03, 0.02, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.3, 0.4, 1.83, 0.1, 0.13, 0.0, 0.42, 0.0, 0.06, 0.04, 0.21, 0.03, 0.03, 0.0, 0.07, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.01, 0.44, 0.1, 0.3, 0.03, 0.09, 0.0, 0.04, 0.0, 0.03, 0.03, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.82, 0.14, 0.44, 0.04, 0.09, 0.0, 0.06, 0.0, 0.04, 0.01, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.96, 0.28, 1.5, 0.04, 0.05, 0.0, 0.55, 0.0, 0.05, 0.01, 0.07, 0.02, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.41, 0.11, 0.25, 0.04, 0.07, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.12, 0.05, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.26, 0.1, 0.5, 0.01, 0.03, 0.0, 0.11, 0.0, 0.02, 0.0, 0.06, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.11, 0.07, 0.11, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.21, 0.04, 0.15, 0.02, 0.02, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.31, 0.06, 0.42, 0.05, 0.03, 0.0, 0.24, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17, 0.08, 0.13, 0.03, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.02, 0.07, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.14, 0.03, 0.19, 0.01, 0.03, 0.0, 0.09, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.07, 0.03, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.02, 0.07, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.07, 0.23, 0.01, 0.02, 0.0, 0.18, 0.0, 0.01, 0.0, 0.07, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.02, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.08, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.09, 0.0, 0.0, 0.0, 0.1, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.06, 0.02, 0.0, 0.0, 0.16, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.04, 0.09, 0.02, 0.01, 0.0, 0.06, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02]]</t>
+          <t>[[0.06, 0.54, 0.47, 1.4, 0.05, 0.09, 0.0, 0.17, 0.0, 0.03, 0.02, 0.02, 0.02, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.46, 58.2, 11.06, 18.81, 2.4, 4.95, 0.0, 2.54, 0.0, 1.48, 0.38, 0.72, 0.37, 0.6, 0.0, 0.64, 0.0, 0.35, 0.14, 0.2, 0.1, 0.24, 0.0, 0.27, 0.0, 0.09, 0.07, 0.07, 0.07, 0.09, 0.0, 0.15, 0.0, 0.07, 0.04, 0.04, 0.01, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.2, 11.06, 20.26, 9.44, 1.95, 2.19, 0.0, 1.79, 0.0, 0.45, 0.44, 0.47, 0.23, 0.18, 0.0, 0.36, 0.0, 0.15, 0.07, 0.12, 0.1, 0.1, 0.0, 0.25, 0.0, 0.04, 0.08, 0.07, 0.02, 0.04, 0.0, 0.09, 0.0, 0.01, 0.03, 0.05, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [1.83, 17.53, 9.02, 32.48, 3.42, 3.79, 0.0, 6.81, 0.0, 1.16, 0.52, 1.84, 0.5, 0.5, 0.0, 1.07, 0.0, 0.22, 0.13, 0.62, 0.23, 0.3, 0.0, 0.49, 0.0, 0.13, 0.09, 0.19, 0.04, 0.11, 0.0, 0.32, 0.0, 0.05, 0.02, 0.11, 0.02, 0.01, 0.0, 0.15, 0.01, 0.01, 0.0, 0.05, 0.0, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.08], [0.08, 2.36, 2.1, 3.07, 1.49, 0.81, 0.0, 0.81, 0.0, 0.14, 0.29, 0.18, 0.12, 0.05, 0.0, 0.08, 0.0, 0.05, 0.0, 0.05, 0.06, 0.02, 0.0, 0.03, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.1, 4.35, 2.06, 4.01, 0.7, 2.71, 0.0, 1.53, 0.0, 0.35, 0.15, 0.21, 0.13, 0.13, 0.0, 0.24, 0.0, 0.11, 0.04, 0.12, 0.04, 0.08, 0.0, 0.15, 0.0, 0.06, 0.02, 0.06, 0.05, 0.04, 0.0, 0.11, 0.0, 0.0, 0.01, 0.04, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.12, 2.94, 1.88, 5.9, 0.78, 1.17, 0.0, 2.76, 0.0, 0.19, 0.14, 0.43, 0.1, 0.13, 0.0, 0.61, 0.0, 0.16, 0.06, 0.12, 0.04, 0.1, 0.0, 0.3, 0.0, 0.11, 0.04, 0.03, 0.02, 0.05, 0.0, 0.17, 0.0, 0.02, 0.0, 0.06, 0.0, 0.01, 0.0, 0.12, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.55, 0.53, 1.14, 0.11, 0.32, 0.0, 0.22, 0.0, 0.07, 0.02, 0.09, 0.03, 0.03, 0.0, 0.05, 0.0, 0.02, 0.03, 0.03, 0.01, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.61, 0.52, 0.48, 0.14, 0.07, 0.0, 0.19, 0.0, 0.02, 0.01, 0.03, 0.02, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.94, 0.46, 1.84, 0.15, 0.23, 0.0, 0.44, 0.0, 0.07, 0.04, 0.08, 0.02, 0.02, 0.0, 0.08, 0.0, 0.0, 0.02, 0.03, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.51, 0.29, 0.37, 0.09, 0.08, 0.0, 0.07, 0.0, 0.04, 0.02, 0.03, 0.0, 0.03, 0.0, 0.05, 0.0, 0.01, 0.01, 0.03, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.61, 0.23, 0.41, 0.08, 0.13, 0.0, 0.11, 0.0, 0.05, 0.02, 0.03, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.74, 0.4, 1.12, 0.13, 0.25, 0.0, 0.45, 0.0, 0.06, 0.06, 0.12, 0.0, 0.01, 0.0, 0.09, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.45, 0.14, 0.21, 0.07, 0.07, 0.0, 0.05, 0.0, 0.03, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.07, 0.11, 0.05, 0.05, 0.0, 0.05, 0.0, 0.01, 0.02, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.25, 0.08, 0.53, 0.05, 0.11, 0.0, 0.1, 0.0, 0.02, 0.06, 0.09, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.22, 0.06, 0.16, 0.05, 0.05, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3, 0.12, 0.26, 0.03, 0.04, 0.0, 0.04, 0.0, 0.04, 0.01, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.42, 0.15, 0.54, 0.1, 0.04, 0.0, 0.11, 0.0, 0.05, 0.01, 0.06, 0.01, 0.0, 0.0, 0.06, 0.0, 0.02, 0.01, 0.03, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.05, 0.14, 0.02, 0.08, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.08, 0.11, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.07, 0.22, 0.01, 0.07, 0.0, 0.03, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.01, 0.06, 0.01, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.06, 0.08, 0.06, 0.01, 0.02, 0.0, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.25, 0.1, 0.33, 0.04, 0.04, 0.0, 0.12, 0.0, 0.03, 0.01, 0.03, 0.02, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.01, 0.03, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.04, 0.15, 0.0, 0.04, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.01, 0.18, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.1, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.411555734658694</v>
+        <v>3.892278061752526</v>
       </c>
       <c r="C5" t="n">
-        <v>2.214136400495688</v>
+        <v>3.407579786299948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5575296942764573</v>
+        <v>0.5347992053098061</v>
       </c>
       <c r="E5" t="n">
-        <v>3.637182975875699</v>
+        <v>3.876841497920698</v>
       </c>
       <c r="F5" t="n">
-        <v>1.172308082374254</v>
+        <v>1.137568789128816</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01987460691435179</v>
+        <v>0.02013852030314045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2958487958400371</v>
+        <v>0.2477467255081286</v>
       </c>
       <c r="I5" t="n">
-        <v>93.61181763004072</v>
+        <v>33.55666848779837</v>
       </c>
       <c r="J5" t="n">
-        <v>5.849538443330379</v>
+        <v>4.868264577855234</v>
       </c>
       <c r="K5" t="n">
-        <v>1.847385317144207</v>
+        <v>1.48913745503899</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9625474741538725</v>
+        <v>0.7642189411418694</v>
       </c>
       <c r="M5" t="n">
-        <v>2.344359995819755</v>
+        <v>1.756253885404955</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[23.607784733007037, 24.645129336240057, 18.423297750402885, 14.01231957956997, 5.358535247621312, 6.219927652312364, 0.8717797887081337, 4.708237462150777, 1.8138081486199142, 2.340000000000001, 1.5797468151574163, 0.35440090293338716, 1.5802215034608285, 0.29171904291629636, 0.7282856582413261, 0.3192177939902475, 0.0, 0.21794494717703392, 0.09949874371066195, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.1399999999999999, 0.0, 0.09949874371066197, 0.1399999999999999, 0.09949874371066199, 0.45287967496896964, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.457647919106858, 18.3620696001295, 14.763861283553162, 12.395688766663996, 5.047563768789851, 5.8574738582429875, 1.6951696080333671, 4.119029011793921, 1.8357287381309912, 2.375268405885953, 1.598874604213851, 0.6224949798994365, 1.8884914614580606, 0.25514701644346155, 0.5666568626602868, 0.409267638593623, 0.21794494717703378, 0.3363034344160044, 0.09949874371066195, 0.33166247903553975, 0.13999999999999987, 0.09949874371066195, 0.17058722109231958, 0.13999999999999987, 0.5148786264742394, 0.09949874371066199, 0.6339558344238179, 0.13999999999999987, 0.17058722109231994, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[31.383556203846606, 27.764444889102307, 31.894708025000018, 37.82786671225328, 35.60348859311402, 29.560329835778234, 31.92054354173814, 31.787436197340607, 28.048878765469386, 28.719434186627012, 30.9938768146226, 27.682745528577907]</t>
+          <t>[16.513134166474877, 7.832649615551554, 13.497036711811965, 8.028019681091967, 13.59977573344502, 18.781522834956704, 9.696391081221913, 16.921453838249246, 6.852233212610324, 24.608421322791113, 5.140466904863797, 19.477872060366344]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13.329857463604023, 75.28294361938832, 69.47091117870846, 25.67742004174095, 33.277636634833314, 3.4632210440571076, 5.854263403708443, 3.6367430483882126, 5.747173218200406, 2.2921387392564165, 2.487247474619282, 1.0682228231974826, 3.177672103915066, 1.0797684937059424, 1.7396551382386112, 0.7180529228406494, 2.7106456795383633, 0.6009159675029442, 1.0246950765959593, 0.48989794855663527, 1.2669254121691627, 0.2917190429162962, 0.481248376620639, 0.23748684174075824, 0.5979966555090421, 0.24166091947189133, 0.4903060268852506, 0.09949874371066199, 0.46679760067935244, 0.17058722109231983, 0.1705872210923199, 0.09949874371066196]</t>
+          <t>[15.614336361177827, 61.41437616714835, 65.22467017931176, 18.701336850610442, 25.574745355526023, 3.2726136343907135, 6.476387882145419, 2.8872824593378463, 5.512340700646143, 1.7630655121123553, 2.8252256547044166, 1.2605950975630518, 3.0759713912843867, 1.301691207621839, 1.8966022250329673, 0.8544003745317531, 2.0213609276920335, 0.556776436283002, 0.6954135460285488, 0.27640549922170504, 0.8472897969408105, 0.17058722109231989, 0.4974937185533103, 0.1399999999999999, 0.33166247903553986, 0.24166091947189108, 0.2215851980616031, 0.1705872210923198, 0.259807621135332, 0.0, 0.09949874371066196, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[12.146258683232457, 87.18157775585391, 56.73665041223355, 62.45563545429668, 21.027341724526185, 15.473991081812088, 0.0, 32.975845705607, 0.0, 3.965488620586371, 1.9217439996003634, 6.920195083955365, 1.4097872179871687, 2.273213584333861, 0.0, 4.151433487363129, 0.0, 1.4898322053170951, 0.6427285585688564, 1.7754999295972962, 0.6731270311018566, 1.142978564978363, 0.0, 1.9045996954740911, 0.0, 1.0146920715172656, 0.5830951894845299, 1.1591376104673679, 0.5723635208501675, 0.5400000000000004, 0.0, 2.4474272205726564, 0.0, 0.4630334761116093, 0.27640549922170504, 0.8585452812752499, 0.31368774282716233, 0.2958039891549809, 0.0, 1.1052601503718484, 0.0, 0.21794494717703383, 0.09949874371066196, 1.0428806259586942, 0.17058722109231986, 0.41999999999999943, 0.0, 2.3008476698816867, 0.0, 0.4123105625617663, 0.29849623113198576, 0.19595917942265403, 0.0, 0.13999999999999987, 0.0, 0.24166091947189128, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.9197282207261026]</t>
+          <t>[7.227025667589673, 82.05387193789213, 65.6271925348022, 56.60503511172837, 15.962969648533447, 17.03127711007017, 0.0, 20.681090396785176, 0.0, 3.1453298714125344, 2.385875101508878, 3.9793969392358934, 1.737124060048677, 1.984943324127921, 0.0, 3.763562142438995, 0.0, 1.2599603168354152, 0.9738583059151888, 1.67603699243185, 0.9279547402756237, 1.4032462364104172, 0.0, 2.0055921818754685, 0.0, 1.0523782589924584, 0.8309031231136396, 0.8765842800324456, 0.5264028875300748, 0.7615773105863902, 0.0, 1.72209175133034, 0.0, 0.5975784467331469, 0.29999999999999977, 0.8354040938372277, 0.29171904291629613, 0.2861817604250837, 0.0, 1.2857293649909372, 0.1399999999999999, 0.30594117081556693, 0.19595917942265423, 0.44933283877321883, 0.25980762113533196, 0.3693237062523879, 0.0, 0.4694677837722205, 0.0, 0.2179449471770338, 0.1399999999999999, 0.25514701644346155, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993, 0.0, 0.5708765190476834]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[9.94574783513034, 2.4151811526260256, 8.917460400809194, 3.8579269044397395, 1.0622617379911599, 2.605839595984374, 0.23748684174075835, 2.1509067855209354, 1.9757530210023746, 5.316869379625573, 9.006281141514517, 5.9872865306414], [2.4677925358506148, 8.565389658386826, 5.553413364769448, 6.561280362856022, 5.344754437764189, 0.9087904048789249, 1.9506665527454976, 0.1705872210923197, 2.064073642097103, 1.5957443404254963, 4.35406706425154, 7.689759424065228], [9.685163911880888, 5.713239011278976, 10.199661759097697, 3.928918426233855, 7.395478348288228, 5.31992481149875, 1.4101063789657864, 2.92745623366089, 0.0, 2.578740002404273, 1.6177453446077368, 3.7080857595260652], [3.725734826849599, 7.066795596308133, 4.953170701681896, 19.310142412732215, 4.239941037325872, 8.377971114774743, 3.800578903272501, 2.0518284528683206, 2.2453507521097884, 0.2764054992217047, 2.5124490044575998, 2.0379156017853153], [1.5852760012060971, 4.8484533616401855, 8.415081698949813, 5.113697292566309, 14.503003137281597, 3.035391243316092, 9.500921007986541, 4.475388251314072, 1.7815442739376417, 2.4104771311920805, 0.09949874371066199, 2.7356169322476416], [2.247131504830103, 1.3360763451240352, 6.288553092723314, 9.523003727816132, 3.5808378907736116, 10.310693478132299, 1.8069587709740391, 8.384861358424473, 2.6884010117540127, 1.651514456491376, 1.8203296404772416, 0.24166091947189114], [0.17058722109231983, 2.557557428485234, 1.6640612969479216, 4.02336923485777, 10.376781774712232, 2.145017482446235, 13.454947045603706, 4.059605892201857, 6.283144117398545, 3.8087268213932073, 1.2924395537122801, 1.88], [2.2098868749327414, 0.32787192621509953, 2.387467277262665, 1.7256592942988467, 4.059605892201855, 9.831154560884489, 4.5738386504117114, 11.337102804508739, 3.7666430677726765, 8.12393993084636, 4.72774787821855, 1.4513442045221392], [1.6092234151913145, 1.7168284713389388, 0.17058722109231994, 2.3700421937172336, 1.800305529625457, 3.1105626500683132, 7.616370526701017, 4.426047898520753, 9.397467744025516, 1.7265862272125294, 8.84208120297479, 3.397057550292607], [4.93204825604941, 1.4657421328460198, 1.8083141320025116, 0.17058722109231997, 2.9491693745866825, 1.5231546211727827, 4.193745342769395, 9.388290579226867, 2.477579463912308, 10.222421435256916, 3.760904146611555, 6.742781325239607], [8.837844759894807, 3.917856556843292, 1.853941746657644, 2.14009345590327, 0.17058722109231975, 2.158031510427966, 1.192434484573472, 4.194031473415523, 9.488814467571807, 4.652687395473717, 10.061068531721666, 1.2688577540449524], [5.899788131789143, 7.437600419490147, 3.3137742832003503, 1.524827859136893, 2.1104264971801308, 0.21794494717703367, 1.8345571672749799, 1.3378714437493622, 4.298127499272211, 7.5144128180450664, 1.6216041440499591, 9.930881129084167]]</t>
+          <t>[[8.453023127851953, 0.47696960070847344, 5.687486263719674, 0.23748684174075826, 2.8410561416487345, 1.3425349157470723, 0.3648287269390938, 2.5988266583210184, 0.32419130154894626, 5.203566084907541, 0.21794494717703375, 5.984981202978002], [0.23748684174075826, 2.4020824298928627, 0.5894913061275804, 2.2737634001804143, 0.42473521163190625, 0.5545268253204715, 0.873155198117723, 0.2764054992217047, 0.7631513611335569, 0.21794494717703375, 0.7355949972641196, 0.19595917942265412], [6.454269904489584, 0.4616275555033515, 5.403924499842686, 0.19595917942265423, 6.165216946709985, 1.158058720445556, 0.4556314299957806, 2.028694161277151, 0.21794494717703358, 2.26439837484485, 0.1399999999999999, 2.353380547212881], [0.31048349392520014, 2.1275337835155526, 0.21794494717703372, 2.2814688251212227, 0.3872983346207416, 1.0704671877269292, 1.1258774356030057, 0.19595917942265428, 0.8751571287488894, 0.24166091947189125, 0.792212092813535, 0.0], [2.681249708624694, 0.4308131845707604, 5.799965517138874, 0.421781934179263, 6.4078389492870365, 5.479151394148551, 1.452583904633395, 5.273054143473211, 0.3912799509302768, 3.3141514751139534, 0.2958039891549811, 1.773809459891339], [0.8997777503361589, 0.7168681887209111, 1.4798648586948746, 1.0908712114635726, 5.866208315428286, 6.877637675830272, 1.3738631664034093, 3.1241638881467173, 0.9039358384310252, 0.8883130078975544, 0.6936137253543936, 0.3241913015489465], [0.3316624790355398, 0.6384355879804946, 0.5723635208501673, 0.6982120021884475, 1.6936351437071677, 1.6964374435858218, 3.249369169546604, 0.705053189482892, 1.862364089000856, 0.9803570778037973, 0.4023679907746148, 0.24166091947189122], [2.7416053691222597, 0.25980762113533196, 2.1122499852053482, 0.17058722109231989, 5.554268628721517, 3.2046840717924123, 0.9219544457292901, 7.922019944433366, 0.2999999999999999, 6.5520989003524654, 0.19595917942265415, 1.1916375287812984], [0.2917190429162961, 0.8585452812752509, 0.2999999999999999, 0.9097252332435322, 0.4160528812542942, 0.7027801932325642, 1.7210171411116175, 0.25514701644346155, 1.7057549648176322, 0.4170131892398608, 1.300922749435953, 0.09949874371066196], [5.926980681594972, 0.2374868417407582, 2.154321238812819, 0.24166091947189128, 3.6074367631325157, 1.2768711759609905, 0.7088018058667742, 6.561829013316332, 0.5546169849544821, 12.700153542378928, 0.09949874371066196, 5.545619893213019], [0.25980762113533196, 0.9856977224281288, 0.0, 0.8761278445523811, 0.31921779399024736, 0.8373171442171717, 0.4448595283907047, 0.09949874371066196, 0.6108191221630179, 0.32419130154894593, 1.4933184523068084, 0.0], [5.856654335027806, 0.21794494717703397, 1.5344054223053303, 0.09949874371066196, 1.4261486598528224, 0.4330127018922197, 0.5153639490690042, 1.5890563237343105, 0.27129319932501095, 6.673260072857944, 0.0, 5.208992224989398]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.3241913015489461, 7.940176320460395, 1.9982742554514368, 4.1709830975442665, 0.873155198117722, 0.4955804677345539, 0.0, 0.5102940328869232, 0.0, 0.13999999999999987, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [8.68446889567807, 70.78042879214564, 17.35627840292959, 13.290688469752046, 3.2874762356555522, 7.318633752279184, 0.0, 3.3707417581298036, 0.0, 2.3171318477807867, 0.9630680142129107, 1.652240902532073, 0.6764613810115109, 1.5766737138672662, 0.0, 1.0897247358851685, 0.0, 0.6907242575731647, 0.2999999999999998, 0.4247352116319061, 0.2551470164434616, 0.41231056256176607, 0.0, 0.39736632972611075, 0.0, 0.2374868417407579, 0.13999999999999985, 0.1705872210923199, 0.38091993909481753, 0.1705872210923197, 0.0, 0.25514701644346155, 0.0, 0.2374868417407581, 0.0, 0.1399999999999999, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0], [0.5530822723609934, 16.557400158237403, 30.27973579805478, 10.407088930147566, 4.1344769923171665, 3.457513557457149, 0.0, 2.4878906728391423, 0.0, 0.99498743710662, 0.856212590423663, 0.9031057523900512, 0.46904157598234236, 0.5758472019555191, 0.0, 0.9152048950918054, 0.0, 0.5782732917920381, 0.34336569426778807, 0.376696164036748, 0.34117444218463977, 0.27640549922170504, 0.0, 0.421781934179263, 0.0, 0.4582575694955841, 0.369323706252388, 0.19595917942265415, 0.13999999999999987, 0.09949874371066199, 0.0, 0.3536947836765476, 0.0, 0.13999999999999996, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [5.344707662725818, 11.899579824514817, 9.993452856745755, 50.044199464073756, 6.847853678343308, 3.0810874703584776, 0.0, 11.262766090086394, 0.0, 1.3926952286842955, 0.6878226515607055, 2.8809720581775866, 0.6462197768561408, 0.7196526940128827, 0.0, 2.521904042583697, 0.0, 0.597996655509042, 0.2374868417407583, 1.0901376059929322, 0.38405728739343103, 0.6212084996198942, 0.0, 0.8879189152169247, 0.0, 0.3544009029333872, 0.21794494717703367, 0.5530822723609934, 0.19595917942265398, 0.21794494717703392, 0.0, 0.7783957862167549, 0.0, 0.19595917942265415, 0.13999999999999987, 0.4308131845707597, 0.09949874371066195, 0.0, 0.0, 0.44485952839070464, 0.0, 0.09949874371066195, 0.0, 0.24166091947189147, 0.09949874371066195, 0.19899748742132395, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.1705872210923197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265403], [0.5153639490690038, 2.8618176042508376, 3.756208194442904, 7.056911505750935, 7.244335718338851, 1.3482952198980747, 0.0, 1.9652989594461219, 0.0, 0.5109794516416488, 0.1705872210923196, 0.44766058571198813, 0.3278719262150994, 0.13999999999999987, 0.0, 0.3912799509302768, 0.0, 0.27640549922170454, 0.1705872210923198, 0.09949874371066195, 0.13999999999999987, 0.13999999999999987, 0.0, 0.2598076211353322, 0.0, 0.1705872210923199, 0.0, 0.13999999999999987, 0.13999999999999985, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.46216880033165325, 6.458567952727599, 3.8227084639035707, 3.315478849276527, 1.4239030865898155, 3.6616253221759325, 0.0, 2.3973944189473717, 0.0, 0.5211525688318157, 0.259807621135332, 0.5708765190476834, 0.17058722109231972, 0.25514701644346166, 0.0, 0.40049968789001583, 0.0, 0.30594117081556715, 0.09949874371066199, 0.3192177939902479, 0.0, 0.1959591794226541, 0.0, 0.4534313619501849, 0.0, 0.2179449471770336, 0.1399999999999999, 0.1399999999999999, 0.0, 0.21794494717703392, 0.0, 0.22158519806160348, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231966, 3.6902032464350776, 1.928315326911031, 9.802912832418741, 1.65755844542508, 2.184742547761635, 0.0, 18.085405718423914, 0.0, 0.5264028875300745, 0.3370459909270544, 1.6312878348102766, 0.4616275555033515, 0.2551470164434616, 0.0, 2.038111871316191, 0.0, 0.13999999999999985, 0.19595917942265417, 0.7522632517942107, 0.2764054992217045, 0.2917190429162963, 0.0, 1.0219589032832974, 0.0, 0.2374868417407581, 0.09949874371066195, 0.40049968789001594, 0.13999999999999993, 0.17058722109231964, 0.0, 0.9013323471394997, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.44933283877321895, 0.0, 0.09949874371066199, 0.09949874371066196, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 1.904599695474091, 0.0, 0.22158519806160293, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.40236799077461416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703364, 2.4456287535110475, 0.7896834808959857, 1.0862780491200221, 0.5413871073455664, 0.6343500610861487, 0.0, 0.5109794516416488, 0.0, 0.4308131845707601, 0.2179449471770338, 0.24166091947189133, 0.13999999999999993, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.19899748742132395, 0.0, 0.13999999999999985, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.22158519806160312, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132395], [0.13999999999999993, 1.0248902380255163, 0.8485281374238567, 0.5450688029964662, 0.3136877428271622, 0.25514701644346166, 0.0, 0.29171904291629625, 0.0, 0.1705872210923198, 0.1399999999999999, 0.19595917942265428, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.24166091947189122, 1.9052558883257644, 0.9486832980505133, 3.218866260036288, 0.3316624790355398, 0.39127995093027684, 0.0, 1.3052202879207786, 0.0, 0.2764054992217048, 0.31368774282716233, 1.4162979912433664, 0.2215851980616034, 0.17058722109231975, 0.0, 0.35369478367654755, 0.0, 0.0, 0.0, 0.3278719262150997, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.13999999999999993, 0.09949874371066197, 0.19899748742132395, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.19899748742132395, 0.19899748742132395, 0.0, 0.0, 0.19899748742132395, 0.0, 0.0, 0.0, 0.29849623113198576, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999], [0.09949874371066195, 0.7391887445030535, 0.3316624790355398, 0.5916079783099618, 0.17058722109231989, 0.31921779399024763, 0.0, 0.19595917942265412, 0.0, 0.17058722109231972, 0.17058722109231989, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.17058722109231975, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.6023732399163444, 0.3469870314579495, 0.8284926070883196, 0.1959591794226541, 0.31921779399024747, 0.0, 0.2764054992217048, 0.0, 0.19595917942265428, 0.09949874371066195, 0.17058722109231977, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.2563439019631526, 0.6177378084592199, 2.6362852652928135, 0.19595917942265392, 0.25980762113533173, 0.0, 1.8131464364468757, 0.0, 0.21794494717703397, 0.09949874371066196, 0.32419130154894643, 0.13999999999999996, 0.13999999999999987, 0.0, 0.259807621135332, 0.0, 0.0, 0.0, 0.19595917942265412, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.17058722109231994, 0.0, 0.09949874371066196, 0.0, 0.32419130154894615, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.9065870063044142, 0.37134889255254305, 0.47696960070847283, 0.19595917942265392, 0.25514701644346166, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.19899748742132395, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.32496153618543866, 0.45343136195018513, 0.21794494717703364, 0.0, 0.19595917942265428, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.5589275444992845, 0.3316624790355398, 1.02469507659596, 0.09949874371066195, 0.2215851980616033, 0.0, 0.5078385570237851, 0.0, 0.13999999999999987, 0.0, 0.41999999999999943, 0.0, 0.19595917942265415, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.3433656942677881, 0.2551470164434615, 0.31288975694324056, 0.0, 0.17058722109232002, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.6048966853934645, 0.31368774282716244, 0.4974937185533107, 0.1989974874213239, 0.13999999999999987, 0.0, 0.21794494717703367, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.8086408349817615, 0.23748684174075824, 1.0017983829094557, 0.2598076211353321, 0.1705872210923198, 0.0, 0.8499411744350303, 0.0, 0.0, 0.0, 0.3278719262150997, 0.0, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4910193478876369, 0.5230678732248807, 0.43943145085439644, 0.2215851980616028, 0.17058722109231983, 0.0, 0.195959179422654, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2598076211353318, 0.13999999999999996, 0.2551470164434616, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.3746998799039039, 0.17058722109231994, 0.560267793113258, 0.09949874371066195, 0.17058722109231975, 0.0, 0.3491418050019222, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.2917190429162961, 0.1705872210923198, 0.3059411708155666, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3059411708155668, 0.13999999999999999, 0.29171904291629597, 0.09949874371066197, 0.09949874371066199, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.5362835071116766, 0.2917190429162963, 0.597578446733147, 0.09949874371066196, 0.13999999999999987, 0.0, 0.7124605252222758, 0.0, 0.09949874371066197, 0.0, 0.4302324952859787, 0.0, 0.13999999999999993, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066197, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3104834939252006, 0.13999999999999987, 0.0, 0.0, 0.1959591794226542, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999993, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231972, 0.09949874371066199, 0.46216880033165336, 0.09949874371066195, 0.0, 0.0, 0.19595917942265417, 0.0, 0.09949874371066197, 0.0, 0.19899748742132395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999987, 0.42649736224272194, 0.0, 0.0, 0.0, 0.4123105625617668, 0.0, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.19899748742132395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.0, 0.13999999999999985, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.35369478367654744, 0.09949874371066196, 0.0, 0.0, 0.17058722109231966, 0.0, 0.0, 0.0, 0.19899748742132395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066199, 0.34117444218464, 0.13999999999999987, 0.0, 0.0, 1.5919798993705914, 0.0, 0.0, 0.0, 0.22158519806160315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.09949874371066199, 0.17058722109231986, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.19595917942265392, 0.3491418050019222, 0.13999999999999987, 0.09949874371066199, 0.0, 0.4199999999999991, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398]]</t>
+          <t>[[0.2374868417407583, 1.178303865732435, 1.099590832991982, 4.810405388322279, 0.21794494717703378, 0.31921779399024763, 0.0, 0.8006872048434394, 0.0, 0.17058722109231972, 0.13999999999999987, 0.13999999999999993, 0.13999999999999987, 0.09949874371066199, 0.0, 0.2917190429162964, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.0336343647538042, 64.30069984067049, 14.896858729275777, 17.03977405953495, 3.143246729100342, 5.064336086793609, 0.0, 2.463412267567082, 0.0, 1.9260321908005589, 0.703988636271921, 1.0777754868245986, 0.6581033353509154, 1.0954451150103317, 0.0, 1.0346013725102046, 0.0, 0.683739716558867, 0.4004996878900157, 0.4898979485566353, 0.2999999999999999, 0.5499090833947011, 0.0, 0.6140846847137611, 0.0, 0.3766961640367476, 0.25514701644346166, 0.25514701644346144, 0.2917190429162962, 0.2861817604250839, 0.0, 0.40926763859362286, 0.0, 0.2551470164434616, 0.19595917942265434, 0.1959591794226542, 0.09949874371066195, 0.19595917942265415, 0.0, 0.09949874371066196, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.774596669241483, 14.800554043683634, 42.07317910498328, 13.459806833680785, 3.4622969254528138, 2.809608513654528, 0.0, 2.534935896625396, 0.0, 0.8874119674649426, 0.8284926070883197, 0.7410128204019147, 0.614084684713762, 0.49759421218498884, 0.0, 0.9002221947941529, 0.0, 0.47696960070847344, 0.4302324952859786, 0.38157568056677843, 0.2999999999999999, 0.3605551275463988, 0.0, 0.653834841531101, 0.0, 0.27999999999999975, 0.27129319932501084, 0.25514701644346166, 0.13999999999999987, 0.24166091947189133, 0.0, 0.44933283877321945, 0.0, 0.09949874371066195, 0.17058722109231975, 0.25980762113533185, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066195, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923198], [5.455373497754301, 16.05269759261664, 14.057012484877436, 37.956417112261796, 6.04016556064484, 4.725029100439488, 0.0, 10.04559107270448, 0.0, 1.2224565431948897, 0.8423775875461073, 2.6104405758415568, 0.7549834435270749, 0.9, 0.0, 1.6325133996387295, 0.0, 0.5758472019555192, 0.36482872693909374, 1.1205355862265152, 0.46593991028887, 0.6855654600401053, 0.0, 0.830602191184203, 0.0, 0.33630343441600447, 0.3491418050019219, 0.5038849074937654, 0.19595917942265423, 0.37134889255254305, 0.0, 0.7194442299441982, 0.0, 0.21794494717703372, 0.13999999999999987, 0.3433656942677881, 0.13999999999999993, 0.09949874371066196, 0.0, 0.58949130612758, 0.09949874371066196, 0.09949874371066195, 0.0, 0.25980762113533196, 0.0, 0.13999999999999987, 0.0, 0.2764054992217047, 0.0, 0.13999999999999993, 0.0, 0.17058722109231966, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.3655133376499408], [0.3370459909270544, 2.941156235224508, 3.678314831549905, 5.3744860219373525, 3.8768414979206973, 1.7418094040393732, 0.0, 1.8422540541412835, 0.0, 0.4247352116319061, 0.7783957862167546, 0.4331281565541543, 0.43081318457076023, 0.21794494717703397, 0.0, 0.3059411708155669, 0.0, 0.21794494717703405, 0.0, 0.21794494717703405, 0.23748684174075824, 0.1399999999999999, 0.0, 0.22158519806160337, 0.0, 0.1705872210923198, 0.0, 0.13999999999999987, 0.09949874371066196, 0.13999999999999993, 0.0, 0.2764054992217045, 0.0, 0.13999999999999987, 0.0, 0.09949874371066193, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.3316624790355398, 4.2127781807258735, 2.9045481576314076, 5.01097794846475, 1.5066519173319373, 5.877576030984202, 0.0, 2.9170361670709517, 0.0, 0.6689544080129824, 0.3840572873934307, 0.6212084996198943, 0.33630343441600447, 0.3648287269390938, 0.0, 0.6945502141674138, 0.0, 0.3128897569432405, 0.2416609194718912, 0.3815756805667784, 0.2416609194718911, 0.27129319932501084, 0.0, 0.47696960070847333, 0.0, 0.34117444218464005, 0.13999999999999987, 0.23748684174075815, 0.21794494717703392, 0.19595917942265417, 0.0, 0.31288975694324056, 0.0, 0.0, 0.09949874371066195, 0.1959591794226542, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5153639490690045, 2.374110359692658, 2.695477694213033, 9.163514609580762, 2.0619408332927507, 2.39188210411801, 0.0, 6.688976005338928, 0.0, 0.5038849074937649, 0.4247352116319063, 0.8746999485537881, 0.3316624790355398, 0.3363034344160044, 0.0, 1.5993436153622513, 0.0, 0.3666060555964673, 0.27640549922170493, 0.4069397989875163, 0.24166091947189122, 0.3872983346207416, 0.0, 0.7141428428542851, 0.0, 0.3433656942677881, 0.24166091947189136, 0.1705872210923199, 0.13999999999999987, 0.21794494717703367, 0.0, 0.6173329733620261, 0.0, 0.13999999999999993, 0.0, 0.3411744421846399, 0.0, 0.09949874371066196, 0.0, 0.5706137047074844, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.19899748742132398, 0.0, 0.24166091947189108, 0.0, 0.09949874371066196, 0.09949874371066197, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.2416609194718914], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.88878267675241, 1.0435995400535596, 1.2001666550941992, 0.44485952839070464, 0.6305553108173777, 0.0, 0.5211525688318158, 0.0, 0.25514701644346144, 0.13999999999999987, 0.4023679907746145, 0.17058722109231986, 0.1705872210923198, 0.0, 0.21794494717703397, 0.0, 0.13999999999999987, 0.17058722109231994, 0.1705872210923199, 0.09949874371066195, 0.195959179422654, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 1.0089103032480151, 1.0047885349664378, 0.9537295214053093, 0.400499687890016, 0.2551470164434616, 0.0, 0.5778408085277466, 0.0, 0.1399999999999999, 0.09949874371066199, 0.1705872210923198, 0.13999999999999987, 0.13999999999999985, 0.0, 0.19595917942265403, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.22158519806160282, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.1473447607410778, 0.7130217387990355, 2.4888551585015954, 0.43301270189222, 0.5806031346797916, 0.0, 1.0707007051459345, 0.0, 0.2551470164434615, 0.19595917942265412, 0.2712931993250109, 0.13999999999999987, 0.13999999999999999, 0.0, 0.27129319932501095, 0.0, 0.0, 0.13999999999999987, 0.1705872210923198, 0.09949874371066199, 0.0, 0.0, 0.1705872210923196, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.24166091947189133, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0], [0.0, 0.8999444427296606, 0.711266476083331, 0.594222180669823, 0.34914180500192216, 0.27129319932501095, 0.0, 0.25514701644346155, 0.0, 0.19595917942265398, 0.1399999999999999, 0.17058722109231986, 0.0, 0.22158519806160323, 0.0, 0.21794494717703372, 0.0, 0.09949874371066195, 0.09949874371066197, 0.1705872210923198, 0.13999999999999987, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 1.0089103032480151, 0.5975784467331468, 0.8613361713059545, 0.27129319932501084, 0.48280430818293224, 0.0, 0.31288975694324056, 0.0, 0.21794494717703394, 0.13999999999999985, 0.22158519806160315, 0.1705872210923199, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0827742146911334, 0.7745966692414832, 1.839999999999999, 0.36482872693909363, 0.653834841531101, 0.0, 1.3738631664034076, 0.0, 0.23748684174075835, 0.2374868417407583, 0.3249615361854386, 0.0, 0.09949874371066199, 0.0, 0.4493328387732192, 0.0, 0.1399999999999999, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.17058722109231972, 0.0, 0.1705872210923199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.779422863405995, 0.4247352116319062, 0.43116122274620217, 0.29171904291629586, 0.2551470164434616, 0.0, 0.21794494717703383, 0.0, 0.22158519806160334, 0.13999999999999987, 0.13999999999999985, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3544009029333872, 0.32419130154894643, 0.39736632972611075, 0.4092676385936232, 0.2179449471770338, 0.0, 0.2598076211353318, 0.0, 0.09949874371066195, 0.13999999999999987, 0.13999999999999996, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.51720402163943, 0.30594117081556615, 0.9945350672550471, 0.2598076211353319, 0.39736632972611075, 0.0, 0.2999999999999999, 0.0, 0.1399999999999999, 0.2764054992217047, 0.31921779399024763, 0.09949874371066199, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.13999999999999999, 0.0, 0.0, 0.0, 0.2215851980616032, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.5211525688318156, 0.23748684174075826, 0.4176122603564224, 0.25980762113533173, 0.259807621135332, 0.0, 0.2917190429162963, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6855654600401052, 0.3544009029333872, 0.5765414122159828, 0.1705872210923199, 0.2416609194718911, 0.0, 0.1959591794226542, 0.0, 0.195959179422654, 0.09949874371066196, 0.13999999999999987, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.7372923436466706, 0.5545268253204714, 0.8052328855678962, 0.3316624790355398, 0.24166091947189114, 0.0, 0.3433656942677881, 0.0, 0.2598076211353317, 0.09949874371066195, 0.2764054992217047, 0.09949874371066196, 0.0, 0.0, 0.23748684174075824, 0.0, 0.1399999999999999, 0.09949874371066196, 0.17058722109231975, 0.0, 0.13999999999999987, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.21794494717703367, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.43301270189222, 0.4092676385936227, 0.447660585711988, 0.1399999999999999, 0.30594117081556715, 0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556715, 0.33704599092705434, 0.371348892552543, 0.17058722109231975, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556704, 0.2551470164434616, 0.592958683214944, 0.09949874371066197, 0.2551470164434616, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.13999999999999996, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2861817604250839, 0.09949874371066195, 0.23748684174075832, 0.09949874371066195, 0.259807621135332, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.23748684174075807, 0.27129319932501084, 0.23748684174075815, 0.09949874371066199, 0.13999999999999996, 0.0, 0.13999999999999985, 0.0, 0.13999999999999985, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.19595917942265403, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.698212002188447, 0.47958315233127247, 0.7622991538759565, 0.19595917942265403, 0.24166091947189114, 0.0, 0.406939798987516, 0.0, 0.1705872210923198, 0.09949874371066196, 0.22158519806160315, 0.1399999999999999, 0.09949874371066196, 0.0, 0.17058722109231989, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2598076211353316, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3872983346207415, 0.09949874371066197, 0.17058722109231983, 0.13999999999999993, 0.17058722109232, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231972, 0.09949874371066195, 0.13999999999999987, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265417, 0.19595917942265412, 0.47696960070847316, 0.0, 0.2416609194718912, 0.0, 0.3278719262150998, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.09949874371066195, 0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.09949874371066199, 0.21794494717703372, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.13999999999999987, 0.09949874371066197, 0.8646386528486901, 0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.24166091947189125, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231989, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.4199999999999992, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.291719042916296, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231975, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109232, 0.09949874371066195, 0.3872983346207416, 0.19899748742132398, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196]]</t>
         </is>
       </c>
     </row>
@@ -824,62 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00500324619558775</v>
+        <v>0.00236917121895846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5862615624253842</v>
+        <v>0.4572395151590339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005092697118196812</v>
+        <v>0.007956291275670133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5083073848352447</v>
+        <v>0.4135814613991577</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007768193479702641</v>
+        <v>0.0127844581069299</v>
       </c>
       <c r="G6" t="n">
-        <v>1.167142804213896</v>
+        <v>1.004814213697871</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02086074673514464</v>
+        <v>0.0265423734335955</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0077291738058294</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.2137645303691643</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1050296234104235</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01426106118082656</v>
+        <v>0.01370883171105969</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01133281441477284</v>
+        <v>0.001506346139611079</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009149339659469072</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.003991629453589033</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1244122002262645</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01663850837778011</v>
+        <v>0.1047125473291426</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04067019915769034</v>
+        <v>0.02849811531294966</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01630603021134074</v>
+        <v>0.01394434778641829</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3881276630133512</v>
+        <v>1.042940243573492</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05316990882832211</v>
+        <v>0.0598315098492273</v>
       </c>
     </row>
     <row r="7">
@@ -889,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9415472806159183</v>
+        <v>0.960041222625806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7595294516568303</v>
+        <v>0.5948942912868774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9679844966481936</v>
+        <v>0.9606115827269019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6108056045305267</v>
+        <v>0.5580157032215107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9520724702312834</v>
+        <v>0.9456207496962284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7514816625617686</v>
+        <v>0.7554026274071857</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9305025008108521</v>
+        <v>0.8787692789158744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9470178726933186</v>
+        <v>0.5465043806062692</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8190249736505882</v>
+        <v>0.8221342521628383</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9292440768912545</v>
+        <v>0.9701332768611335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9589110038638219</v>
+        <v>0.9599704870697751</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9388056648739486</v>
+        <v>0.9532910334642799</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8060417113857397</v>
+        <v>0.7413944890283555</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9682548527965711</v>
+        <v>0.8763306572792683</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9470738069102838</v>
+        <v>0.9145151511339077</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9726071178195673</v>
+        <v>0.9747058188347192</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9158219111622365</v>
+        <v>0.7201831957948508</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9610835442688056</v>
+        <v>0.9612375288160753</v>
       </c>
     </row>
     <row r="8">
@@ -950,62 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005790820935657042</v>
+        <v>0.01259665052112482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146976209124238</v>
+        <v>0.02377252381698141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02235188448394403</v>
+        <v>0.0362178434480582</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06552889281308642</v>
+        <v>0.02950431946256949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007874119011867166</v>
+        <v>0.06091224923984811</v>
       </c>
       <c r="G8" t="n">
-        <v>1.047864454321042</v>
+        <v>0.6470145574879814</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1796280913389069</v>
+        <v>0.0279143632058592</v>
       </c>
       <c r="I8" t="n">
-        <v>1.311641267337893</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.11616718499313</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.260951392295557</v>
       </c>
       <c r="K8" t="n">
-        <v>17.61026602484893</v>
+        <v>0.02758591023896461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0229048617201472</v>
+        <v>0.3599783725023061</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01290787735997625</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.2231385683499668</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.7147921172729583</v>
       </c>
       <c r="O8" t="n">
-        <v>2.815778864711455</v>
+        <v>1.625173820256808</v>
       </c>
       <c r="P8" t="n">
-        <v>4.778543387615754</v>
+        <v>1.387960688411259</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.303734096715631</v>
+        <v>0.3543845094412311</v>
       </c>
       <c r="R8" t="n">
-        <v>4.649874642789639</v>
+        <v>2.92460471321041</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7090387902256869</v>
+        <v>0.3673609326801954</v>
       </c>
     </row>
     <row r="9">
@@ -1015,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9391393584759401</v>
+        <v>0.9462577512361517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7952290463979643</v>
+        <v>0.8444688678527895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.958981118445806</v>
+        <v>0.9416946665984819</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8741361048615823</v>
+        <v>0.8732775268089568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9244495836522587</v>
+        <v>0.9332764741808696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7814462812053653</v>
+        <v>0.7715544807313927</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8700807883972949</v>
+        <v>0.7715906853342248</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9401098588002337</v>
+        <v>0.5824217062180356</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1692971448351397</v>
+        <v>0.1600037370512096</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9144659491736076</v>
+        <v>0.9540888837914984</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9201780353026028</v>
+        <v>0.9456949199460373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9144506190793883</v>
+        <v>0.9373698049552941</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6405174225428344</v>
+        <v>0.4608627705865604</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9138937390992301</v>
+        <v>0.8292006667118791</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9322165017992147</v>
+        <v>0.8999479404422495</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9340467445666499</v>
+        <v>0.9462203221356891</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8757542621746217</v>
+        <v>0.6342099826429335</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9474654180736778</v>
+        <v>0.956755047906205</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/c/c_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/c/c_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.90379825653798</v>
+        <v>16.05601494396015</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>124.4831880448319</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[30.14819427148194, 24.541718555417187, 32.04607721046077, 26.201743462017436, 30.27895392278954, 28.179327521793276, 25.910336239103362, 32.47571606475716, 22.805728518057286, 30.58156911581569, 25.023661270236612, 29.205479452054796]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[7.108343711083437, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 5.906600249066003, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 7.851805728518057, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.325031133250311, 1.1220423412204235, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.290161892901619, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.037359900373599, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.8816936488169365, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.273972602739726, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.688667496886675, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.448318804483188, 0.8655043586550436, 5.74346201743462, 1.983810709838107, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.2640099626401, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 6.9775840597758405, 0.9265255292652553, 5.057285180572852], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.008717310087173101, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.306351183063512, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.070983810709838, 1.049813200498132, 7.364881693648817]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>3.833171896006568</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>105.6954465715101</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[32.9334845118805, 31.647367285055548, 33.01332413646799, 33.830898018250146, 32.8732331454671, 32.68636911350421, 31.84374882124133, 33.801749246652605, 30.682435084683146, 33.00159261078117, 31.110667974394786, 33.098500037317635]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[11.997590776060392, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.286487530248806, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 11.901492988048744, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.176177930249414, 4.425956475496443, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.0948863698903106, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.50747654536291, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.89104547596133, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.716011015117244, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286504582491696, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.234196865053613, 3.4488748631383483, 9.883830410375344, 5.525981826087712, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.688737213666343, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.504160085338109, 3.6606801398387883, 9.028898179918144], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.1269381686756833, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.45072488468592, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.182210081580614, 3.720296636491089, 12.277513878157253]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.1107</v>
+        <v>15.6356</v>
       </c>
       <c r="C4" t="n">
-        <v>14.22</v>
+        <v>15.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4359</v>
+        <v>3.3932</v>
       </c>
       <c r="E4" t="n">
-        <v>21.99</v>
+        <v>22.07</v>
       </c>
       <c r="F4" t="n">
-        <v>6.076499999999999</v>
+        <v>5.854000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0138</v>
+        <v>0.0149</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4366</v>
+        <v>2.478699999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>11.9</v>
+        <v>119.25</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>321.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9058</v>
+        <v>5.905899999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8471</v>
+        <v>2.9243</v>
       </c>
       <c r="M4" t="n">
-        <v>4.912299999999999</v>
+        <v>4.6496</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[77.76, 24.88, 107.78, 46.63, 12.39, 25.1, 0.92, 13.44, 2.51, 3.59, 2.06, 0.35, 2.44, 0.07, 0.33, 0.15, 0.05, 0.13, 0.01, 0.1, 0.02, 0.01, 0.03, 0.02, 0.07, 0.01, 0.09, 0.02, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[82.47, 21.3, 95.75, 47.16, 18.26, 29.79, 1.2, 13.53, 2.44, 3.17, 2.06, 0.41, 1.73, 0.09, 0.49, 0.26, 0.11, 0.12, 0.01, 0.06, 0.01, 0.01, 0.06, 0.0, 0.01, 0.01, 0.03, 0.02, 0.01, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[55.42, 2.36, 54.3, 2.03, 61.19, 14.12, 3.8, 46.38, 2.37, 56.84, 1.34, 21.85]</t>
+          <t>[28.62, 23.07, 27.97, 24.12, 27.73, 27.13, 22.13, 32.76, 24.72, 30.49, 25.21, 27.65]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[11.05, 73.12, 140.32, 22.6, 34.82, 3.9, 9.42, 2.94, 7.29, 1.54, 3.41, 1.03, 3.28, 0.84, 1.77, 0.5, 1.79, 0.3, 0.42, 0.06, 0.39, 0.03, 0.15, 0.02, 0.1, 0.04, 0.03, 0.03, 0.05, 0.0, 0.01, 0.0]</t>
+          <t>[7.73, 80.42, 128.53, 24.5, 37.14, 5.04, 10.2, 3.07, 8.08, 1.67, 3.27, 1.09, 3.33, 0.71, 1.43, 0.79, 2.2, 0.29, 0.45, 0.12, 0.3, 0.08, 0.1, 0.06, 0.06, 0.01, 0.04, 0.05, 0.02, 0.0, 0.01, 0.01]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[3.01, 105.11, 50.54, 84.3, 12.06, 17.66, 0.0, 18.75, 0.0, 4.37, 2.26, 4.62, 1.68, 1.8, 0.0, 3.66, 0.0, 1.15, 0.54, 1.47, 0.67, 0.97, 0.0, 1.76, 0.0, 0.55, 0.36, 0.54, 0.27, 0.4, 0.0, 1.12, 0.0, 0.23, 0.1, 0.39, 0.07, 0.09, 0.0, 0.37, 0.02, 0.08, 0.04, 0.09, 0.05, 0.06, 0.0, 0.14, 0.0, 0.05, 0.02, 0.07, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.21]</t>
+          <t>[8.12, 120.47, 52.29, 61.31, 14.11, 18.94, 0.01, 16.84, 0.0, 4.99, 2.41, 4.24, 1.58, 1.8, 0.0, 3.33, 0.0, 1.16, 0.57, 1.44, 0.47, 0.94, 0.0, 1.65, 0.0, 0.56, 0.25, 0.51, 0.23, 0.45, 0.0, 0.85, 0.0, 0.19, 0.13, 0.3, 0.04, 0.16, 0.0, 0.17, 0.0, 0.09, 0.07, 0.12, 0.04, 0.02, 0.0, 0.13, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.02, 0.0, 0.0, 0.12]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[13.92, 0.15, 14.05, 0.06, 4.78, 0.76, 0.13, 3.69, 0.07, 10.23, 0.05, 7.4], [0.06, 0.5, 0.15, 0.5, 0.14, 0.15, 0.24, 0.06, 0.24, 0.05, 0.17, 0.04], [14.32, 0.13, 13.24, 0.04, 16.51, 0.83, 0.18, 3.38, 0.05, 3.45, 0.02, 1.96], [0.06, 0.44, 0.05, 0.43, 0.1, 0.29, 0.18, 0.04, 0.21, 0.04, 0.18, 0.0], [4.97, 0.12, 17.98, 0.11, 15.14, 4.33, 0.5, 10.57, 0.13, 5.58, 0.05, 1.56], [0.52, 0.19, 0.9, 0.3, 4.74, 3.91, 0.35, 2.14, 0.23, 0.53, 0.17, 0.07], [0.1, 0.18, 0.18, 0.15, 0.54, 0.39, 1.04, 0.27, 0.46, 0.33, 0.09, 0.04], [3.94, 0.05, 3.28, 0.03, 11.49, 2.3, 0.3, 11.04, 0.1, 12.7, 0.04, 1.0], [0.07, 0.27, 0.1, 0.18, 0.13, 0.19, 0.41, 0.07, 0.48, 0.19, 0.26, 0.01], [11.03, 0.06, 3.17, 0.04, 6.08, 0.64, 0.24, 13.32, 0.18, 16.19, 0.01, 5.69], [0.05, 0.22, 0.0, 0.18, 0.09, 0.17, 0.11, 0.01, 0.13, 0.07, 0.3, 0.0], [6.14, 0.05, 1.16, 0.01, 1.19, 0.15, 0.12, 1.57, 0.08, 7.26, 0.0, 4.08]]</t>
+          <t>[[7.56, 0.97, 4.36, 1.72, 0.9, 1.78, 0.11, 2.17, 1.15, 2.85, 3.79, 1.17], [0.94, 5.97, 0.4, 3.4, 2.26, 0.76, 1.53, 0.11, 1.51, 0.56, 1.81, 3.73], [5.02, 0.44, 7.14, 0.85, 4.08, 2.28, 0.63, 2.53, 0.06, 2.03, 0.78, 1.97], [1.7, 3.68, 1.06, 6.1, 1.25, 3.63, 1.62, 1.03, 1.46, 0.08, 1.54, 0.87], [0.87, 2.21, 4.98, 1.17, 6.2, 0.87, 3.31, 2.54, 1.24, 2.13, 0.16, 1.98], [2.15, 0.98, 2.37, 3.92, 1.01, 6.73, 0.52, 4.19, 2.25, 0.91, 1.93, 0.09], [0.13, 1.56, 0.76, 1.82, 4.33, 0.68, 5.65, 0.78, 2.61, 1.51, 0.6, 1.66], [2.13, 0.11, 1.96, 1.01, 2.83, 5.09, 1.04, 9.19, 0.8, 5.2, 2.11, 1.25], [0.81, 1.36, 0.12, 1.62, 0.89, 2.43, 3.61, 0.99, 6.63, 0.87, 3.47, 1.85], [2.6, 0.56, 2.06, 0.13, 2.0, 1.02, 2.0, 5.73, 0.88, 7.96, 1.25, 4.21], [3.45, 1.61, 0.76, 1.41, 0.05, 1.75, 0.59, 2.44, 4.14, 1.32, 6.95, 0.66], [1.17, 3.51, 1.92, 0.9, 1.83, 0.06, 1.45, 1.0, 1.92, 4.95, 0.72, 8.13]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.06, 0.54, 0.47, 1.4, 0.05, 0.09, 0.0, 0.17, 0.0, 0.03, 0.02, 0.02, 0.02, 0.01, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.46, 58.2, 11.06, 18.81, 2.4, 4.95, 0.0, 2.54, 0.0, 1.48, 0.38, 0.72, 0.37, 0.6, 0.0, 0.64, 0.0, 0.35, 0.14, 0.2, 0.1, 0.24, 0.0, 0.27, 0.0, 0.09, 0.07, 0.07, 0.07, 0.09, 0.0, 0.15, 0.0, 0.07, 0.04, 0.04, 0.01, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.2, 11.06, 20.26, 9.44, 1.95, 2.19, 0.0, 1.79, 0.0, 0.45, 0.44, 0.47, 0.23, 0.18, 0.0, 0.36, 0.0, 0.15, 0.07, 0.12, 0.1, 0.1, 0.0, 0.25, 0.0, 0.04, 0.08, 0.07, 0.02, 0.04, 0.0, 0.09, 0.0, 0.01, 0.03, 0.05, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [1.83, 17.53, 9.02, 32.48, 3.42, 3.79, 0.0, 6.81, 0.0, 1.16, 0.52, 1.84, 0.5, 0.5, 0.0, 1.07, 0.0, 0.22, 0.13, 0.62, 0.23, 0.3, 0.0, 0.49, 0.0, 0.13, 0.09, 0.19, 0.04, 0.11, 0.0, 0.32, 0.0, 0.05, 0.02, 0.11, 0.02, 0.01, 0.0, 0.15, 0.01, 0.01, 0.0, 0.05, 0.0, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.08], [0.08, 2.36, 2.1, 3.07, 1.49, 0.81, 0.0, 0.81, 0.0, 0.14, 0.29, 0.18, 0.12, 0.05, 0.0, 0.08, 0.0, 0.05, 0.0, 0.05, 0.06, 0.02, 0.0, 0.03, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.0, 0.06, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.1, 4.35, 2.06, 4.01, 0.7, 2.71, 0.0, 1.53, 0.0, 0.35, 0.15, 0.21, 0.13, 0.13, 0.0, 0.24, 0.0, 0.11, 0.04, 0.12, 0.04, 0.08, 0.0, 0.15, 0.0, 0.06, 0.02, 0.06, 0.05, 0.04, 0.0, 0.11, 0.0, 0.0, 0.01, 0.04, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.12, 2.94, 1.88, 5.9, 0.78, 1.17, 0.0, 2.76, 0.0, 0.19, 0.14, 0.43, 0.1, 0.13, 0.0, 0.61, 0.0, 0.16, 0.06, 0.12, 0.04, 0.1, 0.0, 0.3, 0.0, 0.11, 0.04, 0.03, 0.02, 0.05, 0.0, 0.17, 0.0, 0.02, 0.0, 0.06, 0.0, 0.01, 0.0, 0.12, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.55, 0.53, 1.14, 0.11, 0.32, 0.0, 0.22, 0.0, 0.07, 0.02, 0.09, 0.03, 0.03, 0.0, 0.05, 0.0, 0.02, 0.03, 0.03, 0.01, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.61, 0.52, 0.48, 0.14, 0.07, 0.0, 0.19, 0.0, 0.02, 0.01, 0.03, 0.02, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.94, 0.46, 1.84, 0.15, 0.23, 0.0, 0.44, 0.0, 0.07, 0.04, 0.08, 0.02, 0.02, 0.0, 0.08, 0.0, 0.0, 0.02, 0.03, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.0, 0.51, 0.29, 0.37, 0.09, 0.08, 0.0, 0.07, 0.0, 0.04, 0.02, 0.03, 0.0, 0.03, 0.0, 0.05, 0.0, 0.01, 0.01, 0.03, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.61, 0.23, 0.41, 0.08, 0.13, 0.0, 0.11, 0.0, 0.05, 0.02, 0.03, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.74, 0.4, 1.12, 0.13, 0.25, 0.0, 0.45, 0.0, 0.06, 0.06, 0.12, 0.0, 0.01, 0.0, 0.09, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.45, 0.14, 0.21, 0.07, 0.07, 0.0, 0.05, 0.0, 0.03, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.07, 0.11, 0.05, 0.05, 0.0, 0.05, 0.0, 0.01, 0.02, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.25, 0.08, 0.53, 0.05, 0.11, 0.0, 0.1, 0.0, 0.02, 0.06, 0.09, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.22, 0.06, 0.16, 0.05, 0.05, 0.0, 0.07, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3, 0.12, 0.26, 0.03, 0.04, 0.0, 0.04, 0.0, 0.04, 0.01, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.42, 0.15, 0.54, 0.1, 0.04, 0.0, 0.11, 0.0, 0.05, 0.01, 0.06, 0.01, 0.0, 0.0, 0.06, 0.0, 0.02, 0.01, 0.03, 0.0, 0.02, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.05, 0.14, 0.02, 0.08, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.08, 0.11, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.07, 0.22, 0.01, 0.07, 0.0, 0.03, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.01, 0.06, 0.01, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.06, 0.08, 0.06, 0.01, 0.02, 0.0, 0.02, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.25, 0.1, 0.33, 0.04, 0.04, 0.0, 0.12, 0.0, 0.03, 0.01, 0.03, 0.02, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.01, 0.03, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.04, 0.15, 0.0, 0.04, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.01, 0.18, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.1, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01]]</t>
+          <t>[[0.3, 4.19, 1.31, 1.3, 0.17, 0.18, 0.0, 0.28, 0.0, 0.06, 0.04, 0.02, 0.03, 0.01, 0.0, 0.02, 0.0, 0.03, 0.02, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [4.94, 67.3, 17.13, 13.03, 3.5, 4.74, 0.01, 3.34, 0.0, 1.33, 0.52, 0.86, 0.39, 0.37, 0.0, 0.57, 0.0, 0.27, 0.13, 0.29, 0.12, 0.23, 0.0, 0.29, 0.0, 0.11, 0.06, 0.08, 0.02, 0.07, 0.0, 0.19, 0.0, 0.06, 0.01, 0.0, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02], [0.38, 16.81, 16.78, 8.05, 2.22, 2.03, 0.0, 2.04, 0.0, 0.7, 0.48, 0.56, 0.15, 0.25, 0.0, 0.52, 0.0, 0.15, 0.07, 0.25, 0.04, 0.09, 0.0, 0.14, 0.0, 0.07, 0.01, 0.03, 0.04, 0.05, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [1.41, 13.23, 7.2, 21.09, 3.23, 3.45, 0.0, 4.29, 0.0, 1.08, 0.6, 1.36, 0.39, 0.38, 0.0, 0.87, 0.0, 0.27, 0.08, 0.34, 0.09, 0.21, 0.0, 0.45, 0.0, 0.15, 0.03, 0.15, 0.06, 0.08, 0.0, 0.16, 0.0, 0.0, 0.04, 0.11, 0.02, 0.06, 0.0, 0.06, 0.0, 0.03, 0.03, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.13, 3.34, 2.45, 3.31, 2.09, 0.76, 0.0, 0.71, 0.0, 0.18, 0.16, 0.11, 0.13, 0.07, 0.0, 0.2, 0.0, 0.03, 0.05, 0.06, 0.02, 0.02, 0.0, 0.11, 0.0, 0.03, 0.0, 0.03, 0.02, 0.01, 0.0, 0.01, 0.0, 0.03, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13, 4.65, 1.96, 3.6, 0.93, 3.21, 0.0, 1.63, 0.0, 0.44, 0.09, 0.36, 0.19, 0.23, 0.0, 0.28, 0.0, 0.13, 0.01, 0.17, 0.06, 0.1, 0.0, 0.12, 0.0, 0.06, 0.01, 0.05, 0.05, 0.11, 0.0, 0.12, 0.0, 0.0, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.27, 3.29, 1.9, 3.92, 0.56, 1.55, 0.0, 2.06, 0.0, 0.44, 0.18, 0.39, 0.16, 0.19, 0.0, 0.42, 0.0, 0.1, 0.1, 0.11, 0.06, 0.11, 0.0, 0.24, 0.0, 0.06, 0.07, 0.06, 0.01, 0.04, 0.0, 0.19, 0.0, 0.06, 0.02, 0.07, 0.0, 0.03, 0.0, 0.04, 0.0, 0.01, 0.0, 0.01, 0.01, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1, 1.58, 0.54, 1.05, 0.15, 0.63, 0.0, 0.3, 0.0, 0.1, 0.04, 0.1, 0.04, 0.02, 0.0, 0.06, 0.0, 0.05, 0.0, 0.06, 0.02, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.6, 0.52, 0.49, 0.09, 0.22, 0.0, 0.17, 0.0, 0.04, 0.04, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.07, 1.16, 0.38, 1.1, 0.21, 0.34, 0.0, 0.25, 0.0, 0.17, 0.06, 0.09, 0.02, 0.08, 0.0, 0.05, 0.0, 0.03, 0.01, 0.02, 0.01, 0.03, 0.0, 0.04, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0], [0.03, 0.5, 0.14, 0.31, 0.12, 0.18, 0.0, 0.12, 0.0, 0.05, 0.01, 0.0, 0.01, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.59, 0.24, 0.4, 0.05, 0.17, 0.0, 0.18, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 0.69, 0.43, 0.87, 0.13, 0.29, 0.0, 0.34, 0.0, 0.05, 0.05, 0.11, 0.02, 0.04, 0.0, 0.05, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.05, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.32, 0.08, 0.36, 0.03, 0.08, 0.0, 0.08, 0.0, 0.05, 0.01, 0.03, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.18, 0.1, 0.09, 0.08, 0.01, 0.0, 0.03, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.31, 0.18, 0.38, 0.06, 0.17, 0.0, 0.12, 0.0, 0.03, 0.01, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.03, 0.11, 0.03, 0.01, 0.0, 0.06, 0.0, 0.0, 0.01, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.05, 0.18, 0.07, 0.13, 0.0, 0.1, 0.0, 0.04, 0.0, 0.02, 0.01, 0.02, 0.0, 0.03, 0.0, 0.02, 0.01, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.25, 0.2, 0.43, 0.12, 0.22, 0.0, 0.22, 0.0, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.07, 0.11, 0.02, 0.07, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.04, 0.03, 0.09, 0.03, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09, 0.01, 0.15, 0.04, 0.06, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.05, 0.02, 0.02, 0.01, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.05, 0.09, 0.02, 0.1, 0.0, 0.04, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.17, 0.08, 0.2, 0.03, 0.07, 0.0, 0.09, 0.0, 0.04, 0.02, 0.01, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.02, 0.02, 0.03, 0.02, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.02, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.01, 0.04, 0.11, 0.0, 0.05, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.01, 0.0, 0.03, 0.02, 0.03, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03, 0.01, 0.01, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.02, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.01, 0.03, 0.04, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.892278061752526</v>
+        <v>3.98603645743488</v>
       </c>
       <c r="C5" t="n">
-        <v>3.407579786299948</v>
+        <v>2.493992782667985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5347992053098061</v>
+        <v>0.6435167130696762</v>
       </c>
       <c r="E5" t="n">
-        <v>3.876841497920698</v>
+        <v>3.299257492224576</v>
       </c>
       <c r="F5" t="n">
-        <v>1.137568789128816</v>
+        <v>1.291582749962231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02013852030314045</v>
+        <v>0.01757811138888362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2477467255081286</v>
+        <v>0.232953450285674</v>
       </c>
       <c r="I5" t="n">
-        <v>33.55666848779837</v>
+        <v>91.79764430528705</v>
       </c>
       <c r="J5" t="n">
-        <v>4.868264577855234</v>
+        <v>5.868560300448483</v>
       </c>
       <c r="K5" t="n">
-        <v>1.48913745503899</v>
+        <v>1.721298983326255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7642189411418694</v>
+        <v>0.9554519925145376</v>
       </c>
       <c r="M5" t="n">
-        <v>1.756253885404955</v>
+        <v>2.004457991577773</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[10.457647919106858, 18.3620696001295, 14.763861283553162, 12.395688766663996, 5.047563768789851, 5.8574738582429875, 1.6951696080333671, 4.119029011793921, 1.8357287381309912, 2.375268405885953, 1.598874604213851, 0.6224949798994365, 1.8884914614580606, 0.25514701644346155, 0.5666568626602868, 0.409267638593623, 0.21794494717703378, 0.3363034344160044, 0.09949874371066195, 0.33166247903553975, 0.13999999999999987, 0.09949874371066195, 0.17058722109231958, 0.13999999999999987, 0.5148786264742394, 0.09949874371066199, 0.6339558344238179, 0.13999999999999987, 0.17058722109231994, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[11.997878979219617, 17.065462197080983, 14.390535083866757, 8.421068815773923, 7.610019710881178, 7.366539214583739, 2.054263858417414, 4.798864449012912, 1.751113931187803, 2.000274981096349, 1.6481504785668086, 0.6647555941848103, 1.3103816238027768, 0.28618176042508375, 0.7936623967405785, 0.4820788317277576, 0.3128897569432405, 0.3249615361854386, 0.09949874371066199, 0.27640549922170454, 0.09949874371066196, 0.09949874371066199, 0.27640549922170443, 0.0, 0.09949874371066195, 0.09949874371066199, 0.2215851980616035, 0.13999999999999987, 0.09949874371066195, 0.22158519806160315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[16.513134166474877, 7.832649615551554, 13.497036711811965, 8.028019681091967, 13.59977573344502, 18.781522834956704, 9.696391081221913, 16.921453838249246, 6.852233212610324, 24.608421322791113, 5.140466904863797, 19.477872060366344]</t>
+          <t>[27.909417765335046, 28.444421245650265, 29.599478035938404, 27.430377321502515, 27.691823703035517, 28.712943074509095, 26.93163752912178, 30.45623745638979, 29.11634592458332, 32.9069886194407, 26.91590422036755, 31.651342783521855]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[15.614336361177827, 61.41437616714835, 65.22467017931176, 18.701336850610442, 25.574745355526023, 3.2726136343907135, 6.476387882145419, 2.8872824593378463, 5.512340700646143, 1.7630655121123553, 2.8252256547044166, 1.2605950975630518, 3.0759713912843867, 1.301691207621839, 1.8966022250329673, 0.8544003745317531, 2.0213609276920335, 0.556776436283002, 0.6954135460285488, 0.27640549922170504, 0.8472897969408105, 0.17058722109231989, 0.4974937185533103, 0.1399999999999999, 0.33166247903553986, 0.24166091947189108, 0.2215851980616031, 0.1705872210923198, 0.259807621135332, 0.0, 0.09949874371066196, 0.0]</t>
+          <t>[12.544205833770423, 63.109615749107526, 62.025874439624, 20.794470418839715, 29.58108179225364, 4.24009433857314, 7.1189886922230725, 3.5277613297954273, 7.795742427761453, 2.271805449416829, 3.3101510539550922, 1.5237781990827934, 3.4177624259155284, 1.2906974858579372, 1.7507426995421123, 1.2672410978184063, 3.178049716414141, 0.6371028174478589, 0.9526279441628824, 0.35440090293338716, 0.7000000000000001, 0.3370459909270545, 0.4123105625617661, 0.34117444218463966, 0.3104834939252, 0.09949874371066199, 0.19595917942265423, 0.21794494717703358, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066197]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[7.227025667589673, 82.05387193789213, 65.6271925348022, 56.60503511172837, 15.962969648533447, 17.03127711007017, 0.0, 20.681090396785176, 0.0, 3.1453298714125344, 2.385875101508878, 3.9793969392358934, 1.737124060048677, 1.984943324127921, 0.0, 3.763562142438995, 0.0, 1.2599603168354152, 0.9738583059151888, 1.67603699243185, 0.9279547402756237, 1.4032462364104172, 0.0, 2.0055921818754685, 0.0, 1.0523782589924584, 0.8309031231136396, 0.8765842800324456, 0.5264028875300748, 0.7615773105863902, 0.0, 1.72209175133034, 0.0, 0.5975784467331469, 0.29999999999999977, 0.8354040938372277, 0.29171904291629613, 0.2861817604250837, 0.0, 1.2857293649909372, 0.1399999999999999, 0.30594117081556693, 0.19595917942265423, 0.44933283877321883, 0.25980762113533196, 0.3693237062523879, 0.0, 0.4694677837722205, 0.0, 0.2179449471770338, 0.1399999999999999, 0.25514701644346155, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993, 0.0, 0.5708765190476834]</t>
+          <t>[14.752816680213984, 81.76899840404063, 55.60454927431748, 54.2860377997879, 18.644513938421674, 22.546316772368822, 0.09949874371066197, 15.839015120896878, 0.0, 4.867227136676489, 2.91922935035944, 4.347689041318387, 1.8175808097578496, 2.1908902300206643, 0.0, 3.4844081276452097, 0.0, 1.6353592877407703, 0.8972736483370051, 1.7165080832900268, 0.9844287683728064, 1.5672906558772055, 0.0, 2.2332711434127304, 0.0, 1.003194896318756, 0.5545268253204708, 1.081619156635088, 0.5264028875300745, 0.9937303457175897, 0.0, 1.4991664350564946, 0.0, 0.4836320915737499, 0.43943145085439655, 0.9433981132056618, 0.1959591794226541, 0.5607138307550477, 0.0, 0.7753063910480811, 0.0, 0.2861817604250836, 0.29171904291629647, 0.35440090293338716, 0.19595917942265428, 0.13999999999999996, 0.0, 0.5595533933415112, 0.0, 0.2179449471770336, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.09949874371066197, 0.09949874371066196, 0.09949874371066197, 0.13999999999999987, 0.0, 0.0, 0.4069397989875162]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[8.453023127851953, 0.47696960070847344, 5.687486263719674, 0.23748684174075826, 2.8410561416487345, 1.3425349157470723, 0.3648287269390938, 2.5988266583210184, 0.32419130154894626, 5.203566084907541, 0.21794494717703375, 5.984981202978002], [0.23748684174075826, 2.4020824298928627, 0.5894913061275804, 2.2737634001804143, 0.42473521163190625, 0.5545268253204715, 0.873155198117723, 0.2764054992217047, 0.7631513611335569, 0.21794494717703375, 0.7355949972641196, 0.19595917942265412], [6.454269904489584, 0.4616275555033515, 5.403924499842686, 0.19595917942265423, 6.165216946709985, 1.158058720445556, 0.4556314299957806, 2.028694161277151, 0.21794494717703358, 2.26439837484485, 0.1399999999999999, 2.353380547212881], [0.31048349392520014, 2.1275337835155526, 0.21794494717703372, 2.2814688251212227, 0.3872983346207416, 1.0704671877269292, 1.1258774356030057, 0.19595917942265428, 0.8751571287488894, 0.24166091947189125, 0.792212092813535, 0.0], [2.681249708624694, 0.4308131845707604, 5.799965517138874, 0.421781934179263, 6.4078389492870365, 5.479151394148551, 1.452583904633395, 5.273054143473211, 0.3912799509302768, 3.3141514751139534, 0.2958039891549811, 1.773809459891339], [0.8997777503361589, 0.7168681887209111, 1.4798648586948746, 1.0908712114635726, 5.866208315428286, 6.877637675830272, 1.3738631664034093, 3.1241638881467173, 0.9039358384310252, 0.8883130078975544, 0.6936137253543936, 0.3241913015489465], [0.3316624790355398, 0.6384355879804946, 0.5723635208501673, 0.6982120021884475, 1.6936351437071677, 1.6964374435858218, 3.249369169546604, 0.705053189482892, 1.862364089000856, 0.9803570778037973, 0.4023679907746148, 0.24166091947189122], [2.7416053691222597, 0.25980762113533196, 2.1122499852053482, 0.17058722109231989, 5.554268628721517, 3.2046840717924123, 0.9219544457292901, 7.922019944433366, 0.2999999999999999, 6.5520989003524654, 0.19595917942265415, 1.1916375287812984], [0.2917190429162961, 0.8585452812752509, 0.2999999999999999, 0.9097252332435322, 0.4160528812542942, 0.7027801932325642, 1.7210171411116175, 0.25514701644346155, 1.7057549648176322, 0.4170131892398608, 1.300922749435953, 0.09949874371066196], [5.926980681594972, 0.2374868417407582, 2.154321238812819, 0.24166091947189128, 3.6074367631325157, 1.2768711759609905, 0.7088018058667742, 6.561829013316332, 0.5546169849544821, 12.700153542378928, 0.09949874371066196, 5.545619893213019], [0.25980762113533196, 0.9856977224281288, 0.0, 0.8761278445523811, 0.31921779399024736, 0.8373171442171717, 0.4448595283907047, 0.09949874371066196, 0.6108191221630179, 0.32419130154894593, 1.4933184523068084, 0.0], [5.856654335027806, 0.21794494717703397, 1.5344054223053303, 0.09949874371066196, 1.4261486598528224, 0.4330127018922197, 0.5153639490690042, 1.5890563237343105, 0.27129319932501095, 6.673260072857944, 0.0, 5.208992224989398]]</t>
+          <t>[[10.1037814703209, 3.2632958799348875, 6.391431764479689, 3.197123707334453, 1.7578395831246945, 2.48024192368406, 0.39736632972611063, 2.9395747991843977, 2.5548972582082428, 4.887484015319126, 6.063489094572526, 2.76786921656353], [2.8171616922001483, 8.894329654335962, 1.3490737563232036, 5.817215828899593, 4.469049115863465, 2.0693960471596538, 2.875604284320081, 0.39736632972611075, 2.3086576186173646, 1.2674383614203892, 3.838476260184504, 7.170571804256621], [7.134395559541116, 1.4444376068214242, 9.920705620065538, 2.3510635891017504, 6.927741334663123, 4.135408081435253, 1.6950221237494205, 3.442252169728417, 0.3104834939252006, 2.8229594400203495, 1.936904747270758, 3.675472758707378], [3.366006535941367, 6.173945254049469, 3.205682454642069, 8.853812738024226, 3.0442568879777543, 5.507549364281721, 3.408166662591489, 2.6399053013318476, 2.31698079405074, 0.27129319932501084, 2.273411533356862, 2.23004484259846], [1.6226829634897881, 4.396123292174592, 7.833236878838788, 3.006842197389151, 8.83176086632784, 2.364973572791036, 5.392021884228586, 4.4686015709615505, 2.67252689415841, 2.9585638407849144, 0.48414873747640863, 2.7712091223868316], [3.1729323976410195, 2.828356413184168, 4.293378622949528, 6.162272308166847, 2.93426311022035, 9.627933319253932, 1.1702991070662225, 6.343019785559554, 4.437059837324712, 2.025314790347418, 2.58942078465436, 0.34914180500192177], [0.3648287269390939, 3.053915519460221, 2.2455288909297066, 4.003448513469357, 6.871761055217211, 1.4824304368165142, 9.926101953939424, 1.8361917111238686, 4.681655690031041, 3.293918638946625, 1.61245154965971, 2.5621085066796043], [2.8553633744236464, 0.3973663297261107, 2.972944668169926, 2.4310285888898964, 5.043917128581711, 7.4055317162240275, 2.6188547115103575, 10.757039555565461, 1.8973665961010255, 7.245688373094717, 3.7226200450757774, 2.8822734082664674], [1.724499927515221, 1.9925862591115102, 0.40693979898751614, 2.64869779325615, 1.8595429545993292, 4.968410208507345, 5.917592415839399, 2.1330494602798113, 10.308884517735176, 2.0181922604152445, 5.987411794757395, 4.177020469186138], [4.671188285650665, 1.259523719506703, 2.7706316969240072, 0.4394314508543964, 3.0364452901377956, 2.2180171324856786, 4.161730409336962, 7.90804021234086, 1.7565876010037205, 12.454653748699721, 3.1855140872392953, 6.938724666680473], [5.4210238885288105, 3.3463263439180584, 1.8661189672686997, 2.2851476976335676, 0.21794494717703375, 2.495495942693556, 1.4497930886854165, 4.472851439518199, 6.740949488017247, 3.627340623652543, 8.823123029857394, 1.8342300837135999], [3.277361743842141, 6.796315178094668, 3.604663645889866, 2.0712315177207983, 2.604054530919043, 0.2764054992217049, 2.3468063405402666, 2.3108440016582685, 4.293436851754084, 7.84522147552253, 1.4427751037497152, 11.869839931523936]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.2374868417407583, 1.178303865732435, 1.099590832991982, 4.810405388322279, 0.21794494717703378, 0.31921779399024763, 0.0, 0.8006872048434394, 0.0, 0.17058722109231972, 0.13999999999999987, 0.13999999999999993, 0.13999999999999987, 0.09949874371066199, 0.0, 0.2917190429162964, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.0336343647538042, 64.30069984067049, 14.896858729275777, 17.03977405953495, 3.143246729100342, 5.064336086793609, 0.0, 2.463412267567082, 0.0, 1.9260321908005589, 0.703988636271921, 1.0777754868245986, 0.6581033353509154, 1.0954451150103317, 0.0, 1.0346013725102046, 0.0, 0.683739716558867, 0.4004996878900157, 0.4898979485566353, 0.2999999999999999, 0.5499090833947011, 0.0, 0.6140846847137611, 0.0, 0.3766961640367476, 0.25514701644346166, 0.25514701644346144, 0.2917190429162962, 0.2861817604250839, 0.0, 0.40926763859362286, 0.0, 0.2551470164434616, 0.19595917942265434, 0.1959591794226542, 0.09949874371066195, 0.19595917942265415, 0.0, 0.09949874371066196, 0.0, 0.17058722109231989, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.774596669241483, 14.800554043683634, 42.07317910498328, 13.459806833680785, 3.4622969254528138, 2.809608513654528, 0.0, 2.534935896625396, 0.0, 0.8874119674649426, 0.8284926070883197, 0.7410128204019147, 0.614084684713762, 0.49759421218498884, 0.0, 0.9002221947941529, 0.0, 0.47696960070847344, 0.4302324952859786, 0.38157568056677843, 0.2999999999999999, 0.3605551275463988, 0.0, 0.653834841531101, 0.0, 0.27999999999999975, 0.27129319932501084, 0.25514701644346166, 0.13999999999999987, 0.24166091947189133, 0.0, 0.44933283877321945, 0.0, 0.09949874371066195, 0.17058722109231975, 0.25980762113533185, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066195, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923198], [5.455373497754301, 16.05269759261664, 14.057012484877436, 37.956417112261796, 6.04016556064484, 4.725029100439488, 0.0, 10.04559107270448, 0.0, 1.2224565431948897, 0.8423775875461073, 2.6104405758415568, 0.7549834435270749, 0.9, 0.0, 1.6325133996387295, 0.0, 0.5758472019555192, 0.36482872693909374, 1.1205355862265152, 0.46593991028887, 0.6855654600401053, 0.0, 0.830602191184203, 0.0, 0.33630343441600447, 0.3491418050019219, 0.5038849074937654, 0.19595917942265423, 0.37134889255254305, 0.0, 0.7194442299441982, 0.0, 0.21794494717703372, 0.13999999999999987, 0.3433656942677881, 0.13999999999999993, 0.09949874371066196, 0.0, 0.58949130612758, 0.09949874371066196, 0.09949874371066195, 0.0, 0.25980762113533196, 0.0, 0.13999999999999987, 0.0, 0.2764054992217047, 0.0, 0.13999999999999993, 0.0, 0.17058722109231966, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.3655133376499408], [0.3370459909270544, 2.941156235224508, 3.678314831549905, 5.3744860219373525, 3.8768414979206973, 1.7418094040393732, 0.0, 1.8422540541412835, 0.0, 0.4247352116319061, 0.7783957862167546, 0.4331281565541543, 0.43081318457076023, 0.21794494717703397, 0.0, 0.3059411708155669, 0.0, 0.21794494717703405, 0.0, 0.21794494717703405, 0.23748684174075824, 0.1399999999999999, 0.0, 0.22158519806160337, 0.0, 0.1705872210923198, 0.0, 0.13999999999999987, 0.09949874371066196, 0.13999999999999993, 0.0, 0.2764054992217045, 0.0, 0.13999999999999987, 0.0, 0.09949874371066193, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.3316624790355398, 4.2127781807258735, 2.9045481576314076, 5.01097794846475, 1.5066519173319373, 5.877576030984202, 0.0, 2.9170361670709517, 0.0, 0.6689544080129824, 0.3840572873934307, 0.6212084996198943, 0.33630343441600447, 0.3648287269390938, 0.0, 0.6945502141674138, 0.0, 0.3128897569432405, 0.2416609194718912, 0.3815756805667784, 0.2416609194718911, 0.27129319932501084, 0.0, 0.47696960070847333, 0.0, 0.34117444218464005, 0.13999999999999987, 0.23748684174075815, 0.21794494717703392, 0.19595917942265417, 0.0, 0.31288975694324056, 0.0, 0.0, 0.09949874371066195, 0.1959591794226542, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.5153639490690045, 2.374110359692658, 2.695477694213033, 9.163514609580762, 2.0619408332927507, 2.39188210411801, 0.0, 6.688976005338928, 0.0, 0.5038849074937649, 0.4247352116319063, 0.8746999485537881, 0.3316624790355398, 0.3363034344160044, 0.0, 1.5993436153622513, 0.0, 0.3666060555964673, 0.27640549922170493, 0.4069397989875163, 0.24166091947189122, 0.3872983346207416, 0.0, 0.7141428428542851, 0.0, 0.3433656942677881, 0.24166091947189136, 0.1705872210923199, 0.13999999999999987, 0.21794494717703367, 0.0, 0.6173329733620261, 0.0, 0.13999999999999993, 0.0, 0.3411744421846399, 0.0, 0.09949874371066196, 0.0, 0.5706137047074844, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.19899748742132398, 0.0, 0.24166091947189108, 0.0, 0.09949874371066196, 0.09949874371066197, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.2416609194718914], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 1.88878267675241, 1.0435995400535596, 1.2001666550941992, 0.44485952839070464, 0.6305553108173777, 0.0, 0.5211525688318158, 0.0, 0.25514701644346144, 0.13999999999999987, 0.4023679907746145, 0.17058722109231986, 0.1705872210923198, 0.0, 0.21794494717703397, 0.0, 0.13999999999999987, 0.17058722109231994, 0.1705872210923199, 0.09949874371066195, 0.195959179422654, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 1.0089103032480151, 1.0047885349664378, 0.9537295214053093, 0.400499687890016, 0.2551470164434616, 0.0, 0.5778408085277466, 0.0, 0.1399999999999999, 0.09949874371066199, 0.1705872210923198, 0.13999999999999987, 0.13999999999999985, 0.0, 0.19595917942265403, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.22158519806160282, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 1.1473447607410778, 0.7130217387990355, 2.4888551585015954, 0.43301270189222, 0.5806031346797916, 0.0, 1.0707007051459345, 0.0, 0.2551470164434615, 0.19595917942265412, 0.2712931993250109, 0.13999999999999987, 0.13999999999999999, 0.0, 0.27129319932501095, 0.0, 0.0, 0.13999999999999987, 0.1705872210923198, 0.09949874371066199, 0.0, 0.0, 0.1705872210923196, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.24166091947189133, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0], [0.0, 0.8999444427296606, 0.711266476083331, 0.594222180669823, 0.34914180500192216, 0.27129319932501095, 0.0, 0.25514701644346155, 0.0, 0.19595917942265398, 0.1399999999999999, 0.17058722109231986, 0.0, 0.22158519806160323, 0.0, 0.21794494717703372, 0.0, 0.09949874371066195, 0.09949874371066197, 0.1705872210923198, 0.13999999999999987, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 1.0089103032480151, 0.5975784467331468, 0.8613361713059545, 0.27129319932501084, 0.48280430818293224, 0.0, 0.31288975694324056, 0.0, 0.21794494717703394, 0.13999999999999985, 0.22158519806160315, 0.1705872210923199, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0827742146911334, 0.7745966692414832, 1.839999999999999, 0.36482872693909363, 0.653834841531101, 0.0, 1.3738631664034076, 0.0, 0.23748684174075835, 0.2374868417407583, 0.3249615361854386, 0.0, 0.09949874371066199, 0.0, 0.4493328387732192, 0.0, 0.1399999999999999, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.17058722109231972, 0.0, 0.1705872210923199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.779422863405995, 0.4247352116319062, 0.43116122274620217, 0.29171904291629586, 0.2551470164434616, 0.0, 0.21794494717703383, 0.0, 0.22158519806160334, 0.13999999999999987, 0.13999999999999985, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3544009029333872, 0.32419130154894643, 0.39736632972611075, 0.4092676385936232, 0.2179449471770338, 0.0, 0.2598076211353318, 0.0, 0.09949874371066195, 0.13999999999999987, 0.13999999999999996, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.51720402163943, 0.30594117081556615, 0.9945350672550471, 0.2598076211353319, 0.39736632972611075, 0.0, 0.2999999999999999, 0.0, 0.1399999999999999, 0.2764054992217047, 0.31921779399024763, 0.09949874371066199, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.13999999999999999, 0.0, 0.0, 0.0, 0.2215851980616032, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.5211525688318156, 0.23748684174075826, 0.4176122603564224, 0.25980762113533173, 0.259807621135332, 0.0, 0.2917190429162963, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6855654600401052, 0.3544009029333872, 0.5765414122159828, 0.1705872210923199, 0.2416609194718911, 0.0, 0.1959591794226542, 0.0, 0.195959179422654, 0.09949874371066196, 0.13999999999999987, 0.09949874371066196, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.7372923436466706, 0.5545268253204714, 0.8052328855678962, 0.3316624790355398, 0.24166091947189114, 0.0, 0.3433656942677881, 0.0, 0.2598076211353317, 0.09949874371066195, 0.2764054992217047, 0.09949874371066196, 0.0, 0.0, 0.23748684174075824, 0.0, 0.1399999999999999, 0.09949874371066196, 0.17058722109231975, 0.0, 0.13999999999999987, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.21794494717703367, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.43301270189222, 0.4092676385936227, 0.447660585711988, 0.1399999999999999, 0.30594117081556715, 0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556715, 0.33704599092705434, 0.371348892552543, 0.17058722109231975, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.30594117081556704, 0.2551470164434616, 0.592958683214944, 0.09949874371066197, 0.2551470164434616, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.13999999999999996, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2861817604250839, 0.09949874371066195, 0.23748684174075832, 0.09949874371066195, 0.259807621135332, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.23748684174075807, 0.27129319932501084, 0.23748684174075815, 0.09949874371066199, 0.13999999999999996, 0.0, 0.13999999999999985, 0.0, 0.13999999999999985, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.19595917942265403, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.698212002188447, 0.47958315233127247, 0.7622991538759565, 0.19595917942265403, 0.24166091947189114, 0.0, 0.406939798987516, 0.0, 0.1705872210923198, 0.09949874371066196, 0.22158519806160315, 0.1399999999999999, 0.09949874371066196, 0.0, 0.17058722109231989, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2598076211353316, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3872983346207415, 0.09949874371066197, 0.17058722109231983, 0.13999999999999993, 0.17058722109232, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231972, 0.09949874371066195, 0.13999999999999987, 0.09949874371066199, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265417, 0.19595917942265412, 0.47696960070847316, 0.0, 0.2416609194718912, 0.0, 0.3278719262150998, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.09949874371066195, 0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.09949874371066199, 0.21794494717703372, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.13999999999999987, 0.09949874371066197, 0.8646386528486901, 0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.24166091947189125, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231989, 0.0, 0.09949874371066195, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066196, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.4199999999999992, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.291719042916296, 0.0, 0.09949874371066199, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231975, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109232, 0.09949874371066195, 0.3872983346207416, 0.19899748742132398, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196]]</t>
+          <t>[[0.9327379053088827, 9.28298982009567, 2.423613005411547, 3.5902646142032504, 0.6009159675029447, 0.49759421218498884, 0.0, 0.7359347797189639, 0.0, 0.2374868417407583, 0.19595917942265423, 0.13999999999999987, 0.17058722109231958, 0.09949874371066195, 0.0, 0.13999999999999993, 0.0, 0.17058722109231972, 0.13999999999999996, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.2215851980616031, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [10.731095004704784, 70.16416464264361, 19.085939851105056, 11.688845109761697, 4.5902069670114, 5.319060067342724, 0.09949874371066197, 3.2069299961177835, 0.0, 1.5624019969265281, 0.8182909018191517, 1.392982411949267, 0.7196526940128829, 0.6581033353509157, 0.0, 0.8277076778670109, 0.0, 0.5806031346797919, 0.33630343441600463, 0.5346961754117937, 0.3815756805667784, 0.6611353870426243, 0.0, 0.5346961754117938, 0.0, 0.3433656942677881, 0.27640549922170454, 0.30594117081556715, 0.1399999999999999, 0.2551470164434615, 0.0, 0.523354564325181, 0.0, 0.3104834939252, 0.09949874371066199, 0.0, 0.0, 0.2416609194718915, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999987], [1.0467091286503625, 18.70491646599898, 30.01418997740902, 12.016967171462191, 3.1099196131089943, 2.9170361670709535, 0.0, 3.016355416723965, 0.0, 1.1090536506409414, 1.1088733020503296, 0.8404760555780276, 0.40926763859362303, 0.49749371855331, 0.0, 1.0533755265810951, 0.0, 0.45552167895721507, 0.2551470164434615, 0.5894913061275798, 0.24166091947189136, 0.4493328387732195, 0.0, 0.5102940328869229, 0.0, 0.32419130154894654, 0.09949874371066196, 0.1705872210923199, 0.1959591794226543, 0.25980762113533173, 0.0, 0.19595917942265423, 0.0, 0.09949874371066199, 0.0, 0.17058722109231983, 0.09949874371066199, 0.0, 0.0, 0.22158519806160312, 0.0, 0.1399999999999999, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0], [4.0647140120800636, 11.410394384069292, 11.889491158161482, 35.24545218889949, 6.090738871434237, 4.521891197275759, 0.0, 6.050280985210522, 0.0, 1.6473008225579213, 1.0583005244258359, 1.9417517864031957, 0.6307931515164062, 0.6128621378417822, 0.0, 1.671257011952381, 0.0, 0.6611353870426234, 0.33704599092705423, 0.6666333324999587, 0.31921779399024736, 0.5156549233741496, 0.0, 0.7664854858377947, 0.0, 0.4769696007084733, 0.17058722109231972, 0.40926763859362303, 0.2374868417407581, 0.27129319932501084, 0.0, 0.4630334761116094, 0.0, 0.0, 0.24166091947189125, 0.5638262143604181, 0.13999999999999987, 0.2374868417407584, 0.0, 0.2764054992217048, 0.0, 0.17058722109231972, 0.22158519806160323, 0.17058722109231975, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.4160528812542943, 4.42316628672267, 3.31775526523582, 5.969413706554438, 6.349952755729764, 1.2579348154813104, 0.0, 1.3586390249069098, 0.0, 0.4975942121849889, 0.3929376540877703, 0.34336569426778807, 0.36482872693909385, 0.2551470164434615, 0.0, 0.4898979485566352, 0.0, 0.17058722109231975, 0.2179449471770336, 0.2374868417407581, 0.13999999999999987, 0.13999999999999985, 0.0, 0.34336569426778807, 0.0, 0.22158519806160312, 0.0, 0.22158519806160287, 0.13999999999999985, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.17058722109231975, 0.19899748742132398, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4160528812542943, 5.505224791050772, 2.6492263021493647, 4.219004621945798, 1.5248278591368933, 8.462026943941984, 0.0, 3.404864167628422, 0.0, 1.0707007051459345, 0.28618176042508364, 0.6711184694225012, 0.48363209157374976, 0.6458327956987014, 0.0, 0.6177378084592196, 0.0, 0.4160528812542942, 0.09949874371066199, 0.5109794516416488, 0.23748684174075807, 0.33166247903553986, 0.0, 0.43081318457075957, 0.0, 0.2764054992217051, 0.09949874371066196, 0.217944947177034, 0.217944947177034, 0.39736632972611063, 0.0, 0.47497368348151586, 0.0, 0.0, 0.09949874371066199, 0.1399999999999999, 0.0, 0.13999999999999996, 0.0, 0.09949874371066197, 0.0, 0.13999999999999987, 0.09949874371066199, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7727224598780594, 2.5111551126921654, 2.9983328701129897, 5.761388721480263, 1.1774548823628017, 3.4824560298731684, 0.0, 4.034402062263998, 0.0, 0.9728309205612253, 0.5173006862551026, 0.9153687781435421, 0.5238320341483521, 0.5421254467371921, 0.0, 0.8964373932405989, 0.0, 0.3605551275463988, 0.36055512754639885, 0.39736632972611063, 0.2764054992217051, 0.31288975694324045, 0.0, 0.6945502141674136, 0.0, 0.2374868417407583, 0.2551470164434615, 0.2764054992217048, 0.09949874371066193, 0.19595917942265417, 0.0, 0.6587108622149774, 0.0, 0.23748684174075832, 0.1399999999999999, 0.25514701644346144, 0.0, 0.17058722109231972, 0.0, 0.1959591794226541, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.09949874371066196, 0.13999999999999996, 0.0, 0.31368774282716233, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3605551275463987, 1.7330897264711944, 1.1083320801997933, 1.675559608011603, 0.5172040216394305, 1.572609296678611, 0.0, 0.6855654600401045, 0.0, 0.4123105625617668, 0.1959591794226543, 0.36055512754639873, 0.2416609194718912, 0.1399999999999999, 0.0, 0.23748684174075818, 0.0, 0.25980762113533173, 0.0, 0.23748684174075824, 0.1399999999999999, 0.17058722109231989, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2598076211353317, 0.9165151389911674, 1.0814804667676619, 1.0999545445153627, 0.3766961640367477, 0.6257795138864809, 0.0, 0.6009159675029447, 0.0, 0.19595917942265398, 0.24166091947189144, 0.09949874371066195, 0.09949874371066196, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066199, 0.13999999999999993, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.29171904291629636, 1.397998569384103, 0.7039886362719214, 2.0371548787463363, 0.5708765190476834, 0.7901898506055367, 0.0, 0.653834841531101, 0.0, 0.47021271782035, 0.42, 0.34914180500192177, 0.13999999999999993, 0.3370459909270545, 0.0, 0.2179449471770337, 0.0, 0.1705872210923199, 0.09949874371066195, 0.13999999999999987, 0.09949874371066197, 0.17058722109231994, 0.0, 0.19595917942265428, 0.0, 0.09949874371066196, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0], [0.17058722109231977, 0.7280109889280518, 0.3469870314579493, 0.6433506042586732, 0.43081318457075957, 0.4975942121849889, 0.0, 0.49558046773455405, 0.0, 0.2179449471770336, 0.09949874371066199, 0.0, 0.09949874371066199, 0.13999999999999996, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231983, 1.1322102278287371, 0.6651315659326358, 0.7745966692414827, 0.21794494717703364, 0.44844174649557345, 0.0, 0.5173006862551023, 0.0, 0.17058722109231966, 0.09949874371066196, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.13999999999999999, 0.0, 0.09949874371066199, 0.1399999999999999, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.36551333764994093, 1.083466658462549, 1.0512373661547612, 1.5662375298785305, 0.3912799509302768, 0.6825686778632607, 0.0, 0.7512655988397183, 0.0, 0.21794494717703367, 0.25980762113533157, 0.31288975694324045, 0.13999999999999999, 0.1959591794226541, 0.0, 0.25980762113533207, 0.0, 0.09949874371066199, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.2179449471770339, 0.0, 0.09949874371066196, 0.09949874371066199, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.5979966555090418, 0.27129319932501084, 0.7683749084919421, 0.17058722109231986, 0.27129319932501084, 0.0, 0.2712931993250109, 0.0, 0.2179449471770336, 0.09949874371066197, 0.1705872210923198, 0.09949874371066195, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.4331281565541545, 0.3316624790355398, 0.31921779399024763, 0.30594117081556693, 0.09949874371066197, 0.0, 0.17058722109231983, 0.0, 0.0, 0.1399999999999999, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.627614531380528, 0.6063002556489647, 0.7180529228406496, 0.27640549922170454, 0.5301886456724626, 0.0, 0.3815756805667783, 0.0, 0.17058722109231983, 0.09949874371066195, 0.195959179422654, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.19595917942265428, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.44766058571198797, 0.2215851980616034, 0.421781934179263, 0.17058722109231975, 0.09949874371066199, 0.0, 0.23748684174075835, 0.0, 0.0, 0.09949874371066199, 0.17058722109231975, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.6225752966509349, 0.2179449471770336, 0.43312815655415465, 0.25514701644346155, 0.36482872693909374, 0.0, 0.33166247903553986, 0.0, 0.1959591794226541, 0.0, 0.13999999999999987, 0.09949874371066196, 0.19899748742132392, 0.0, 0.17058722109231966, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 0.5722761571129799, 0.6324555320336758, 1.0793979803575693, 0.38157568056677843, 0.5211525688318157, 0.0, 0.5211525688318156, 0.0, 0.13999999999999987, 0.09949874371066196, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.13999999999999996, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999999, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3666060555964676, 0.35369478367654794, 0.371348892552543, 0.13999999999999996, 0.2551470164434615, 0.0, 0.1399999999999999, 0.0, 0.13999999999999987, 0.09949874371066197, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.24166091947189114, 0.29849623113198603, 0.31921779399024747, 0.17058722109231989, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.44933283877321856, 0.09949874371066199, 0.40926763859362286, 0.19595917942265417, 0.23748684174075838, 0.0, 0.23748684174075832, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.2179449471770336, 0.13999999999999985, 0.13999999999999985, 0.09949874371066196, 0.19595917942265412, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3104834939252005, 0.25980762113533173, 0.31921779399024763, 0.13999999999999987, 0.41231056256176596, 0.0, 0.2416609194718914, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.5301886456724626, 0.30594117081556715, 0.5656854249492376, 0.17058722109231983, 0.35369478367654733, 0.0, 0.3491418050019222, 0.0, 0.1959591794226542, 0.1399999999999999, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.19595917942265415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231972, 0.13999999999999987, 0.13999999999999987, 0.17058722109231975, 0.1399999999999999, 0.0, 0.19595917942265412, 0.0, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.13999999999999993, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 0.09949874371066199, 0.19595917942265415, 0.6464518543557591, 0.0, 0.2179449471770336, 0.0, 0.25980762113533223, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.09949874371066199, 0.0, 0.17058722109231972, 0.13999999999999987, 0.2215851980616033, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.2215851980616031, 0.09949874371066193, 0.09949874371066193, 0.17058722109231972, 0.0, 0.2984962311319858, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999999, 0.09949874371066197, 0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.13999999999999987, 0.0, 0.22158519806160307, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999987, 0.1399999999999999, 0.2416609194718913, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132395, 0.09949874371066197, 0.17058722109231975, 0.19595917942265403, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066199, 0.19595917942265415, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00236917121895846</v>
+        <v>0.002371637192455472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4572395151590339</v>
+        <v>0.4842850782405573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007956291275670133</v>
+        <v>0.02252270651080937</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4135814613991577</v>
+        <v>0.4087253121831727</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0127844581069299</v>
+        <v>0.02095442354442248</v>
       </c>
       <c r="G6" t="n">
-        <v>1.004814213697871</v>
+        <v>1.12504736800928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0265423734335955</v>
+        <v>0.00275711774282735</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2137645303691643</v>
+        <v>0.01075582806955379</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1050296234104235</v>
+        <v>0.09913529820621861</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01370883171105969</v>
+        <v>0.01947404193891712</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001506346139611079</v>
+        <v>0.006936843564758051</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003991629453589033</v>
+        <v>0.02389156384769809</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1244122002262645</v>
+        <v>0.08156811040957541</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1047125473291426</v>
+        <v>0.01539312727188512</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02849811531294966</v>
+        <v>0.02557175436318793</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01394434778641829</v>
+        <v>0.01091952500494649</v>
       </c>
       <c r="R6" t="n">
-        <v>1.042940243573492</v>
+        <v>0.3548251980341986</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0598315098492273</v>
+        <v>0.06350706373906605</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.960041222625806</v>
+        <v>0.9534916056613437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5948942912868774</v>
+        <v>0.5701084094375823</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9606115827269019</v>
+        <v>0.9473546431220858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5580157032215107</v>
+        <v>0.5795720140323127</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9456207496962284</v>
+        <v>0.9692339135987645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7554026274071857</v>
+        <v>0.7735443579313473</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8787692789158744</v>
+        <v>0.8916739041526552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5465043806062692</v>
+        <v>0.9365174782782626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8221342521628383</v>
+        <v>0.8230188087746256</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9701332768611335</v>
+        <v>0.9338632534270128</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9599704870697751</v>
+        <v>0.9388937555924521</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9532910334642799</v>
+        <v>0.893783117859886</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7413944890283555</v>
+        <v>0.7823225713786659</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8763306572792683</v>
+        <v>0.9435546672862674</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9145151511339077</v>
+        <v>0.9105255427768136</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9747058188347192</v>
+        <v>0.9705240609446049</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7201831957948508</v>
+        <v>0.8076282619823053</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9612375288160753</v>
+        <v>0.9607921905487538</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01259665052112482</v>
+        <v>0.01224346048840657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02377252381698141</v>
+        <v>0.09018180826466518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0362178434480582</v>
+        <v>0.07930593977621812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02950431946256949</v>
+        <v>0.05425980489831354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06091224923984811</v>
+        <v>0.05307940184354299</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6470145574879814</v>
+        <v>0.7894497208625221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0279143632058592</v>
+        <v>0.005715806447332786</v>
       </c>
       <c r="I8" t="n">
-        <v>0.11616718499313</v>
+        <v>1.85002468549465</v>
       </c>
       <c r="J8" t="n">
-        <v>2.260951392295557</v>
+        <v>2.230053073511375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02758591023896461</v>
+        <v>0.02644773860414128</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3599783725023061</v>
+        <v>0.2657340768427714</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2231385683499668</v>
+        <v>0.641414905755367</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7147921172729583</v>
+        <v>0.1667794835628072</v>
       </c>
       <c r="O8" t="n">
-        <v>1.625173820256808</v>
+        <v>2.846419818100866</v>
       </c>
       <c r="P8" t="n">
-        <v>1.387960688411259</v>
+        <v>1.04921425159816</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3543845094412311</v>
+        <v>0.2256163894077857</v>
       </c>
       <c r="R8" t="n">
-        <v>2.92460471321041</v>
+        <v>4.921432091718684</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3673609326801954</v>
+        <v>0.2115462301452289</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9462577512361517</v>
+        <v>0.9474053809952582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8444688678527895</v>
+        <v>0.6841397030405271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9416946665984819</v>
+        <v>0.9420217478730386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8732775268089568</v>
+        <v>0.8197734845763629</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9332764741808696</v>
+        <v>0.9560628640092316</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7715544807313927</v>
+        <v>0.7950759432576181</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7715906853342248</v>
+        <v>0.7953630042022791</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5824217062180356</v>
+        <v>0.9301015459271235</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1600037370512096</v>
+        <v>0.1875112905266381</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9540888837914984</v>
+        <v>0.9344972710013788</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9456949199460373</v>
+        <v>0.928521136868115</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9373698049552941</v>
+        <v>0.8907522455649477</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4608627705865604</v>
+        <v>0.343311067566115</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8292006667118791</v>
+        <v>0.9165356934636116</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8999479404422495</v>
+        <v>0.8856723527022713</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9462203221356891</v>
+        <v>0.9554101544381245</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6342099826429335</v>
+        <v>0.7559912150212976</v>
       </c>
       <c r="S9" t="n">
-        <v>0.956755047906205</v>
+        <v>0.9579938054207919</v>
       </c>
     </row>
   </sheetData>
